--- a/Processed_data/Site_Precip_Temp_Elv.xlsx
+++ b/Processed_data/Site_Precip_Temp_Elv.xlsx
@@ -1,21 +1,308 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westernsydneyedu-my.sharepoint.com/personal/90957135_westernsydney_edu_au/Documents/ABS_FIRE/ABS_FIRE_MYCO/Processed_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_92335DC08F79A8D366075C52F37BD2720A4CF3BD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6642AA9-FAE5-4A56-A28E-0763ACEAEC93}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>precip_Jan</t>
+  </si>
+  <si>
+    <t>precip_Feb</t>
+  </si>
+  <si>
+    <t>precip_Mar</t>
+  </si>
+  <si>
+    <t>precip_Apr</t>
+  </si>
+  <si>
+    <t>precip_May</t>
+  </si>
+  <si>
+    <t>precip_Jun</t>
+  </si>
+  <si>
+    <t>precip_Jul</t>
+  </si>
+  <si>
+    <t>precip_Aug</t>
+  </si>
+  <si>
+    <t>precip_Sep</t>
+  </si>
+  <si>
+    <t>precip_Oct</t>
+  </si>
+  <si>
+    <t>precip_Nov</t>
+  </si>
+  <si>
+    <t>precip_Dec</t>
+  </si>
+  <si>
+    <t>Annual_Temp</t>
+  </si>
+  <si>
+    <t>Annual_Prec</t>
+  </si>
+  <si>
+    <t>Tavg_Jan</t>
+  </si>
+  <si>
+    <t>Tavg_Feb</t>
+  </si>
+  <si>
+    <t>Tavg_Mar</t>
+  </si>
+  <si>
+    <t>Tavg_Apr</t>
+  </si>
+  <si>
+    <t>Tavg_May</t>
+  </si>
+  <si>
+    <t>Tavg_Jun</t>
+  </si>
+  <si>
+    <t>Tavg_Jul</t>
+  </si>
+  <si>
+    <t>Tavg_Aug</t>
+  </si>
+  <si>
+    <t>Tavg_Sep</t>
+  </si>
+  <si>
+    <t>Tavg_Oct</t>
+  </si>
+  <si>
+    <t>Tavg_Nov</t>
+  </si>
+  <si>
+    <t>Tavg_Dec</t>
+  </si>
+  <si>
+    <t>ABS001</t>
+  </si>
+  <si>
+    <t>ABS002</t>
+  </si>
+  <si>
+    <t>ABS003</t>
+  </si>
+  <si>
+    <t>ABS004</t>
+  </si>
+  <si>
+    <t>ABS005</t>
+  </si>
+  <si>
+    <t>ABS006</t>
+  </si>
+  <si>
+    <t>ABS007</t>
+  </si>
+  <si>
+    <t>ABS008</t>
+  </si>
+  <si>
+    <t>ABS009</t>
+  </si>
+  <si>
+    <t>ABS010</t>
+  </si>
+  <si>
+    <t>ABS011</t>
+  </si>
+  <si>
+    <t>ABS012</t>
+  </si>
+  <si>
+    <t>ABS014</t>
+  </si>
+  <si>
+    <t>ABS015</t>
+  </si>
+  <si>
+    <t>ABS016</t>
+  </si>
+  <si>
+    <t>ABS017</t>
+  </si>
+  <si>
+    <t>ABS018</t>
+  </si>
+  <si>
+    <t>ABS019</t>
+  </si>
+  <si>
+    <t>ABS020</t>
+  </si>
+  <si>
+    <t>ABS021</t>
+  </si>
+  <si>
+    <t>ABS022</t>
+  </si>
+  <si>
+    <t>ABS023</t>
+  </si>
+  <si>
+    <t>ABS024</t>
+  </si>
+  <si>
+    <t>ABS025</t>
+  </si>
+  <si>
+    <t>ABS026</t>
+  </si>
+  <si>
+    <t>ABS027</t>
+  </si>
+  <si>
+    <t>ABS028</t>
+  </si>
+  <si>
+    <t>ABS029</t>
+  </si>
+  <si>
+    <t>ABS030</t>
+  </si>
+  <si>
+    <t>ABS031</t>
+  </si>
+  <si>
+    <t>ABS032</t>
+  </si>
+  <si>
+    <t>ABS033</t>
+  </si>
+  <si>
+    <t>ABS034</t>
+  </si>
+  <si>
+    <t>ABS035</t>
+  </si>
+  <si>
+    <t>ABS036</t>
+  </si>
+  <si>
+    <t>ABS037</t>
+  </si>
+  <si>
+    <t>ABS038</t>
+  </si>
+  <si>
+    <t>ABS039</t>
+  </si>
+  <si>
+    <t>ABS040</t>
+  </si>
+  <si>
+    <t>ABS041</t>
+  </si>
+  <si>
+    <t>ABS042</t>
+  </si>
+  <si>
+    <t>ABS043</t>
+  </si>
+  <si>
+    <t>ABS044</t>
+  </si>
+  <si>
+    <t>ABS045</t>
+  </si>
+  <si>
+    <t>ABS046</t>
+  </si>
+  <si>
+    <t>ABS047</t>
+  </si>
+  <si>
+    <t>ABS048</t>
+  </si>
+  <si>
+    <t>ABS049</t>
+  </si>
+  <si>
+    <t>ABS050</t>
+  </si>
+  <si>
+    <t>ABS051</t>
+  </si>
+  <si>
+    <t>ABS052</t>
+  </si>
+  <si>
+    <t>ABS053</t>
+  </si>
+  <si>
+    <t>ABS054</t>
+  </si>
+  <si>
+    <t>ABS055</t>
+  </si>
+  <si>
+    <t>ABS056</t>
+  </si>
+  <si>
+    <t>ABS057</t>
+  </si>
+  <si>
+    <t>ABS058</t>
+  </si>
+  <si>
+    <t>ABS059</t>
+  </si>
+  <si>
+    <t>ABS060</t>
+  </si>
+  <si>
+    <t>ABS061</t>
+  </si>
+  <si>
+    <t>ABS062</t>
+  </si>
+  <si>
+    <t>ABS063</t>
+  </si>
+  <si>
+    <t>elev</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +350,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +402,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +436,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +471,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,173 +647,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Long</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Lat</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>precip_Jan</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>precip_Feb</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>precip_Mar</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>precip_Apr</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>precip_May</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>precip_Jun</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>precip_Jul</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>precip_Aug</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>precip_Sep</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>precip_Oct</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>precip_Nov</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>precip_Dec</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Annual_Temp</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Annual_Prec</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Tavg_Jan</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Tavg_Feb</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Tavg_Mar</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Tavg_Apr</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Tavg_May</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Tavg_Jun</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Tavg_Jul</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Tavg_Aug</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Tavg_Sep</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Tavg_Oct</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Tavg_Nov</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Tavg_Dec</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>wc2.1_30s_elev</t>
-        </is>
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ABS001</t>
-        </is>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
       </c>
       <c r="B2">
-        <v>150.36008</v>
+        <v>150.36008000000001</v>
       </c>
       <c r="C2">
         <v>-33.66375</v>
@@ -558,10 +795,10 @@
         <v>106</v>
       </c>
       <c r="P2">
-        <v>12.55833339691162</v>
+        <v>12.558333396911619</v>
       </c>
       <c r="Q2">
-        <v>9.550000190734863</v>
+        <v>9.5500001907348633</v>
       </c>
       <c r="R2">
         <v>18.20000076293945</v>
@@ -579,16 +816,16 @@
         <v>10.19999980926514</v>
       </c>
       <c r="W2">
-        <v>7.400000095367432</v>
+        <v>7.4000000953674316</v>
       </c>
       <c r="X2">
         <v>6.5</v>
       </c>
       <c r="Y2">
-        <v>7.400000095367432</v>
+        <v>7.4000000953674316</v>
       </c>
       <c r="Z2">
-        <v>9.800000190734863</v>
+        <v>9.8000001907348633</v>
       </c>
       <c r="AA2">
         <v>12.5</v>
@@ -603,17 +840,15 @@
         <v>890</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ABS002</t>
-        </is>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>150.39412</v>
+        <v>150.39411999999999</v>
       </c>
       <c r="C3">
-        <v>-33.64083</v>
+        <v>-33.640830000000001</v>
       </c>
       <c r="D3">
         <v>174</v>
@@ -652,10 +887,10 @@
         <v>105</v>
       </c>
       <c r="P3">
-        <v>13.09583377838135</v>
+        <v>13.095833778381349</v>
       </c>
       <c r="Q3">
-        <v>9.691666603088379</v>
+        <v>9.6916666030883789</v>
       </c>
       <c r="R3">
         <v>18.70000076293945</v>
@@ -697,17 +932,15 @@
         <v>794</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ABS003</t>
-        </is>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>150.26981</v>
+        <v>150.26981000000001</v>
       </c>
       <c r="C4">
-        <v>-33.5896</v>
+        <v>-33.589599999999997</v>
       </c>
       <c r="D4">
         <v>155</v>
@@ -749,7 +982,7 @@
         <v>11.80416679382324</v>
       </c>
       <c r="Q4">
-        <v>9.591666221618652</v>
+        <v>9.5916662216186523</v>
       </c>
       <c r="R4">
         <v>17.70000076293945</v>
@@ -764,19 +997,19 @@
         <v>12.19999980926514</v>
       </c>
       <c r="V4">
-        <v>9.199999809265137</v>
+        <v>9.1999998092651367</v>
       </c>
       <c r="W4">
-        <v>6.400000095367432</v>
+        <v>6.4000000953674316</v>
       </c>
       <c r="X4">
-        <v>5.400000095367432</v>
+        <v>5.4000000953674316</v>
       </c>
       <c r="Y4">
-        <v>6.400000095367432</v>
+        <v>6.4000000953674316</v>
       </c>
       <c r="Z4">
-        <v>8.899999618530273</v>
+        <v>8.8999996185302734</v>
       </c>
       <c r="AA4">
         <v>11.80000019073486</v>
@@ -791,17 +1024,15 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ABS004</t>
-        </is>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
       </c>
       <c r="B5">
         <v>150.28671</v>
       </c>
       <c r="C5">
-        <v>-33.56827</v>
+        <v>-33.568269999999998</v>
       </c>
       <c r="D5">
         <v>155</v>
@@ -840,10 +1071,10 @@
         <v>98</v>
       </c>
       <c r="P5">
-        <v>12.22916698455811</v>
+        <v>12.229166984558111</v>
       </c>
       <c r="Q5">
-        <v>9.675000190734863</v>
+        <v>9.6750001907348633</v>
       </c>
       <c r="R5">
         <v>18.10000038146973</v>
@@ -858,19 +1089,19 @@
         <v>12.69999980926514</v>
       </c>
       <c r="V5">
-        <v>9.600000381469727</v>
+        <v>9.6000003814697266</v>
       </c>
       <c r="W5">
-        <v>6.800000190734863</v>
+        <v>6.8000001907348633</v>
       </c>
       <c r="X5">
-        <v>5.900000095367432</v>
+        <v>5.9000000953674316</v>
       </c>
       <c r="Y5">
-        <v>6.900000095367432</v>
+        <v>6.9000000953674316</v>
       </c>
       <c r="Z5">
-        <v>9.399999618530273</v>
+        <v>9.3999996185302734</v>
       </c>
       <c r="AA5">
         <v>12.19999980926514</v>
@@ -885,17 +1116,15 @@
         <v>946</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ABS005</t>
-        </is>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
       </c>
       <c r="B6">
         <v>150.27821</v>
       </c>
       <c r="C6">
-        <v>-33.5781</v>
+        <v>-33.578099999999999</v>
       </c>
       <c r="D6">
         <v>155</v>
@@ -937,7 +1166,7 @@
         <v>12.07083320617676</v>
       </c>
       <c r="Q6">
-        <v>9.675000190734863</v>
+        <v>9.6750001907348633</v>
       </c>
       <c r="R6">
         <v>18</v>
@@ -955,16 +1184,16 @@
         <v>9.5</v>
       </c>
       <c r="W6">
-        <v>6.699999809265137</v>
+        <v>6.6999998092651367</v>
       </c>
       <c r="X6">
-        <v>5.699999809265137</v>
+        <v>5.6999998092651367</v>
       </c>
       <c r="Y6">
-        <v>6.699999809265137</v>
+        <v>6.6999998092651367</v>
       </c>
       <c r="Z6">
-        <v>9.199999809265137</v>
+        <v>9.1999998092651367</v>
       </c>
       <c r="AA6">
         <v>12.10000038146973</v>
@@ -979,17 +1208,15 @@
         <v>977</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ABS006</t>
-        </is>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
       </c>
       <c r="B7">
-        <v>150.35112</v>
+        <v>150.35112000000001</v>
       </c>
       <c r="C7">
-        <v>-33.56611</v>
+        <v>-33.566110000000002</v>
       </c>
       <c r="D7">
         <v>168</v>
@@ -1028,10 +1255,10 @@
         <v>103</v>
       </c>
       <c r="P7">
-        <v>12.35833358764648</v>
+        <v>12.358333587646481</v>
       </c>
       <c r="Q7">
-        <v>9.666666984558105</v>
+        <v>9.6666669845581055</v>
       </c>
       <c r="R7">
         <v>18.10000038146973</v>
@@ -1046,16 +1273,16 @@
         <v>12.80000019073486</v>
       </c>
       <c r="V7">
-        <v>9.800000190734863</v>
+        <v>9.8000001907348633</v>
       </c>
       <c r="W7">
-        <v>7.099999904632568</v>
+        <v>7.0999999046325684</v>
       </c>
       <c r="X7">
-        <v>6.099999904632568</v>
+        <v>6.0999999046325684</v>
       </c>
       <c r="Y7">
-        <v>7.099999904632568</v>
+        <v>7.0999999046325684</v>
       </c>
       <c r="Z7">
         <v>9.5</v>
@@ -1073,17 +1300,15 @@
         <v>910</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ABS007</t>
-        </is>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
       </c>
       <c r="B8">
-        <v>150.36966</v>
+        <v>150.36966000000001</v>
       </c>
       <c r="C8">
-        <v>-33.63916</v>
+        <v>-33.639159999999997</v>
       </c>
       <c r="D8">
         <v>176</v>
@@ -1122,10 +1347,10 @@
         <v>105</v>
       </c>
       <c r="P8">
-        <v>12.75416660308838</v>
+        <v>12.754166603088381</v>
       </c>
       <c r="Q8">
-        <v>9.491666793823242</v>
+        <v>9.4916667938232422</v>
       </c>
       <c r="R8">
         <v>18.39999961853027</v>
@@ -1143,16 +1368,16 @@
         <v>10.39999961853027</v>
       </c>
       <c r="W8">
-        <v>7.599999904632568</v>
+        <v>7.5999999046325684</v>
       </c>
       <c r="X8">
-        <v>6.699999809265137</v>
+        <v>6.6999998092651367</v>
       </c>
       <c r="Y8">
-        <v>7.599999904632568</v>
+        <v>7.5999999046325684</v>
       </c>
       <c r="Z8">
-        <v>9.899999618530273</v>
+        <v>9.8999996185302734</v>
       </c>
       <c r="AA8">
         <v>12.69999980926514</v>
@@ -1167,17 +1392,15 @@
         <v>874</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ABS008</t>
-        </is>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
       </c>
       <c r="B9">
-        <v>150.32069</v>
+        <v>150.32069000000001</v>
       </c>
       <c r="C9">
-        <v>-33.65039</v>
+        <v>-33.650390000000002</v>
       </c>
       <c r="D9">
         <v>174</v>
@@ -1219,7 +1442,7 @@
         <v>12.21249961853027</v>
       </c>
       <c r="Q9">
-        <v>9.458333015441895</v>
+        <v>9.4583330154418945</v>
       </c>
       <c r="R9">
         <v>18</v>
@@ -1234,7 +1457,7 @@
         <v>12.69999980926514</v>
       </c>
       <c r="V9">
-        <v>9.699999809265137</v>
+        <v>9.6999998092651367</v>
       </c>
       <c r="W9">
         <v>7</v>
@@ -1246,7 +1469,7 @@
         <v>7</v>
       </c>
       <c r="Z9">
-        <v>9.399999618530273</v>
+        <v>9.3999996185302734</v>
       </c>
       <c r="AA9">
         <v>12.19999980926514</v>
@@ -1261,17 +1484,15 @@
         <v>945</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ABS009</t>
-        </is>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
       </c>
       <c r="B10">
-        <v>150.33315</v>
+        <v>150.33314999999999</v>
       </c>
       <c r="C10">
-        <v>-33.66061</v>
+        <v>-33.660609999999998</v>
       </c>
       <c r="D10">
         <v>177</v>
@@ -1313,7 +1534,7 @@
         <v>12.22499942779541</v>
       </c>
       <c r="Q10">
-        <v>9.449999809265137</v>
+        <v>9.4499998092651367</v>
       </c>
       <c r="R10">
         <v>18</v>
@@ -1328,7 +1549,7 @@
         <v>12.69999980926514</v>
       </c>
       <c r="V10">
-        <v>9.699999809265137</v>
+        <v>9.6999998092651367</v>
       </c>
       <c r="W10">
         <v>7</v>
@@ -1340,7 +1561,7 @@
         <v>7</v>
       </c>
       <c r="Z10">
-        <v>9.399999618530273</v>
+        <v>9.3999996185302734</v>
       </c>
       <c r="AA10">
         <v>12.19999980926514</v>
@@ -1355,17 +1576,15 @@
         <v>946</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ABS010</t>
-        </is>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
       </c>
       <c r="B11">
-        <v>150.40622</v>
+        <v>150.40621999999999</v>
       </c>
       <c r="C11">
-        <v>-33.48607</v>
+        <v>-33.486069999999998</v>
       </c>
       <c r="D11">
         <v>167</v>
@@ -1407,7 +1626,7 @@
         <v>12.82083320617676</v>
       </c>
       <c r="Q11">
-        <v>9.791666984558105</v>
+        <v>9.7916669845581055</v>
       </c>
       <c r="R11">
         <v>18.5</v>
@@ -1425,13 +1644,13 @@
         <v>10.30000019073486</v>
       </c>
       <c r="W11">
-        <v>7.599999904632568</v>
+        <v>7.5999999046325684</v>
       </c>
       <c r="X11">
-        <v>6.599999904632568</v>
+        <v>6.5999999046325684</v>
       </c>
       <c r="Y11">
-        <v>7.599999904632568</v>
+        <v>7.5999999046325684</v>
       </c>
       <c r="Z11">
         <v>10</v>
@@ -1449,17 +1668,15 @@
         <v>811</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ABS011</t>
-        </is>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
       </c>
       <c r="B12">
-        <v>150.35631</v>
+        <v>150.35631000000001</v>
       </c>
       <c r="C12">
-        <v>-33.51962</v>
+        <v>-33.519620000000003</v>
       </c>
       <c r="D12">
         <v>162</v>
@@ -1501,7 +1718,7 @@
         <v>12.44583320617676</v>
       </c>
       <c r="Q12">
-        <v>9.925000190734863</v>
+        <v>9.9250001907348633</v>
       </c>
       <c r="R12">
         <v>18.20000076293945</v>
@@ -1516,19 +1733,19 @@
         <v>12.89999961853027</v>
       </c>
       <c r="V12">
-        <v>9.899999618530273</v>
+        <v>9.8999996185302734</v>
       </c>
       <c r="W12">
-        <v>7.199999809265137</v>
+        <v>7.1999998092651367</v>
       </c>
       <c r="X12">
-        <v>6.099999904632568</v>
+        <v>6.0999999046325684</v>
       </c>
       <c r="Y12">
-        <v>7.199999809265137</v>
+        <v>7.1999998092651367</v>
       </c>
       <c r="Z12">
-        <v>9.600000381469727</v>
+        <v>9.6000003814697266</v>
       </c>
       <c r="AA12">
         <v>12.5</v>
@@ -1543,17 +1760,15 @@
         <v>880</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ABS012</t>
-        </is>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>40</v>
       </c>
       <c r="B13">
-        <v>150.56587</v>
+        <v>150.56586999999999</v>
       </c>
       <c r="C13">
-        <v>-33.52589</v>
+        <v>-33.525889999999997</v>
       </c>
       <c r="D13">
         <v>176</v>
@@ -1592,10 +1807,10 @@
         <v>110</v>
       </c>
       <c r="P13">
-        <v>14.75416660308838</v>
+        <v>14.754166603088381</v>
       </c>
       <c r="Q13">
-        <v>10.79166698455811</v>
+        <v>10.791666984558111</v>
       </c>
       <c r="R13">
         <v>20.20000076293945</v>
@@ -1613,13 +1828,13 @@
         <v>12.39999961853027</v>
       </c>
       <c r="W13">
-        <v>9.699999809265137</v>
+        <v>9.6999998092651367</v>
       </c>
       <c r="X13">
-        <v>8.800000190734863</v>
+        <v>8.8000001907348633</v>
       </c>
       <c r="Y13">
-        <v>9.699999809265137</v>
+        <v>9.6999998092651367</v>
       </c>
       <c r="Z13">
         <v>12.19999980926514</v>
@@ -1637,17 +1852,15 @@
         <v>470</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ABS014</t>
-        </is>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>41</v>
       </c>
       <c r="B14">
-        <v>150.69846</v>
+        <v>150.69846000000001</v>
       </c>
       <c r="C14">
-        <v>-33.18755</v>
+        <v>-33.187550000000002</v>
       </c>
       <c r="D14">
         <v>125</v>
@@ -1689,7 +1902,7 @@
         <v>15.72500038146973</v>
       </c>
       <c r="Q14">
-        <v>11.43333339691162</v>
+        <v>11.433333396911619</v>
       </c>
       <c r="R14">
         <v>21.39999961853027</v>
@@ -1731,17 +1944,15 @@
         <v>362</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ABS015</t>
-        </is>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>42</v>
       </c>
       <c r="B15">
-        <v>150.64734</v>
+        <v>150.64734000000001</v>
       </c>
       <c r="C15">
-        <v>-33.25736</v>
+        <v>-33.257359999999998</v>
       </c>
       <c r="D15">
         <v>138</v>
@@ -1780,7 +1991,7 @@
         <v>95</v>
       </c>
       <c r="P15">
-        <v>15.22916698455811</v>
+        <v>15.229166984558111</v>
       </c>
       <c r="Q15">
         <v>11.00833320617676</v>
@@ -1804,7 +2015,7 @@
         <v>10.10000038146973</v>
       </c>
       <c r="X15">
-        <v>9.100000381469727</v>
+        <v>9.1000003814697266</v>
       </c>
       <c r="Y15">
         <v>10.10000038146973</v>
@@ -1825,17 +2036,15 @@
         <v>454</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ABS016</t>
-        </is>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>43</v>
       </c>
       <c r="B16">
-        <v>150.69952</v>
+        <v>150.69952000000001</v>
       </c>
       <c r="C16">
-        <v>-33.307</v>
+        <v>-33.307000000000002</v>
       </c>
       <c r="D16">
         <v>122</v>
@@ -1874,7 +2083,7 @@
         <v>88</v>
       </c>
       <c r="P16">
-        <v>15.77916622161865</v>
+        <v>15.779166221618651</v>
       </c>
       <c r="Q16">
         <v>11.375</v>
@@ -1898,7 +2107,7 @@
         <v>10.60000038146973</v>
       </c>
       <c r="X16">
-        <v>9.600000381469727</v>
+        <v>9.6000003814697266</v>
       </c>
       <c r="Y16">
         <v>10.69999980926514</v>
@@ -1919,17 +2128,15 @@
         <v>328</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ABS017</t>
-        </is>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>44</v>
       </c>
       <c r="B17">
         <v>150.69626</v>
       </c>
       <c r="C17">
-        <v>-33.05597</v>
+        <v>-33.055970000000002</v>
       </c>
       <c r="D17">
         <v>123</v>
@@ -1968,7 +2175,7 @@
         <v>88</v>
       </c>
       <c r="P17">
-        <v>15.98333358764648</v>
+        <v>15.983333587646481</v>
       </c>
       <c r="Q17">
         <v>11.64999961853027</v>
@@ -2013,11 +2220,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ABS018</t>
-        </is>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>45</v>
       </c>
       <c r="B18">
         <v>150.69743</v>
@@ -2062,10 +2267,10 @@
         <v>88</v>
       </c>
       <c r="P18">
-        <v>15.95416641235352</v>
+        <v>15.954166412353519</v>
       </c>
       <c r="Q18">
-        <v>11.65833377838135</v>
+        <v>11.658333778381349</v>
       </c>
       <c r="R18">
         <v>21.79999923706055</v>
@@ -2107,17 +2312,15 @@
         <v>335</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ABS019</t>
-        </is>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>46</v>
       </c>
       <c r="B19">
         <v>150.61407</v>
       </c>
       <c r="C19">
-        <v>-32.71216</v>
+        <v>-32.712159999999997</v>
       </c>
       <c r="D19">
         <v>126</v>
@@ -2159,7 +2362,7 @@
         <v>14.36666679382324</v>
       </c>
       <c r="Q19">
-        <v>10.08333301544189</v>
+        <v>10.083333015441889</v>
       </c>
       <c r="R19">
         <v>20.29999923706055</v>
@@ -2183,7 +2386,7 @@
         <v>8</v>
       </c>
       <c r="Y19">
-        <v>8.899999618530273</v>
+        <v>8.8999996185302734</v>
       </c>
       <c r="Z19">
         <v>11.5</v>
@@ -2201,17 +2404,15 @@
         <v>662</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ABS020</t>
-        </is>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>47</v>
       </c>
       <c r="B20">
         <v>150.69116</v>
       </c>
       <c r="C20">
-        <v>-33.19051</v>
+        <v>-33.190510000000003</v>
       </c>
       <c r="D20">
         <v>124</v>
@@ -2250,10 +2451,10 @@
         <v>88</v>
       </c>
       <c r="P20">
-        <v>15.73333358764648</v>
+        <v>15.733333587646481</v>
       </c>
       <c r="Q20">
-        <v>11.56666660308838</v>
+        <v>11.566666603088381</v>
       </c>
       <c r="R20">
         <v>21.39999961853027</v>
@@ -2295,17 +2496,15 @@
         <v>352</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ABS021</t>
-        </is>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>48</v>
       </c>
       <c r="B21">
-        <v>150.69768</v>
+        <v>150.69767999999999</v>
       </c>
       <c r="C21">
-        <v>-33.19302</v>
+        <v>-33.193019999999997</v>
       </c>
       <c r="D21">
         <v>127</v>
@@ -2368,7 +2567,7 @@
         <v>10.39999961853027</v>
       </c>
       <c r="X21">
-        <v>9.399999618530273</v>
+        <v>9.3999996185302734</v>
       </c>
       <c r="Y21">
         <v>10.5</v>
@@ -2389,17 +2588,15 @@
         <v>378</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ABS022</t>
-        </is>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>49</v>
       </c>
       <c r="B22">
-        <v>150.7256</v>
+        <v>150.72559999999999</v>
       </c>
       <c r="C22">
-        <v>-32.71764</v>
+        <v>-32.717640000000003</v>
       </c>
       <c r="D22">
         <v>125</v>
@@ -2438,7 +2635,7 @@
         <v>88</v>
       </c>
       <c r="P22">
-        <v>15.45416641235352</v>
+        <v>15.454166412353519</v>
       </c>
       <c r="Q22">
         <v>10.77499961853027</v>
@@ -2462,7 +2659,7 @@
         <v>10.10000038146973</v>
       </c>
       <c r="X22">
-        <v>9.100000381469727</v>
+        <v>9.1000003814697266</v>
       </c>
       <c r="Y22">
         <v>10</v>
@@ -2483,11 +2680,9 @@
         <v>462</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ABS023</t>
-        </is>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>50</v>
       </c>
       <c r="B23">
         <v>150.77202</v>
@@ -2532,7 +2727,7 @@
         <v>91</v>
       </c>
       <c r="P23">
-        <v>16.35833358764648</v>
+        <v>16.358333587646481</v>
       </c>
       <c r="Q23">
         <v>11.94999980926514</v>
@@ -2556,7 +2751,7 @@
         <v>10.80000019073486</v>
       </c>
       <c r="X23">
-        <v>9.699999809265137</v>
+        <v>9.6999998092651367</v>
       </c>
       <c r="Y23">
         <v>11</v>
@@ -2577,17 +2772,15 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ABS024</t>
-        </is>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>51</v>
       </c>
       <c r="B24">
-        <v>150.68922</v>
+        <v>150.68922000000001</v>
       </c>
       <c r="C24">
-        <v>-33.16438</v>
+        <v>-33.164380000000001</v>
       </c>
       <c r="D24">
         <v>121</v>
@@ -2671,17 +2864,15 @@
         <v>333</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ABS025</t>
-        </is>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>52</v>
       </c>
       <c r="B25">
         <v>150.76163</v>
       </c>
       <c r="C25">
-        <v>-33.36957</v>
+        <v>-33.369570000000003</v>
       </c>
       <c r="D25">
         <v>120</v>
@@ -2720,7 +2911,7 @@
         <v>84</v>
       </c>
       <c r="P25">
-        <v>16.25833320617676</v>
+        <v>16.258333206176761</v>
       </c>
       <c r="Q25">
         <v>11.23333263397217</v>
@@ -2765,17 +2956,15 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ABS026</t>
-        </is>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>53</v>
       </c>
       <c r="B26">
-        <v>150.50014</v>
+        <v>150.50013999999999</v>
       </c>
       <c r="C26">
-        <v>-33.4982</v>
+        <v>-33.498199999999997</v>
       </c>
       <c r="D26">
         <v>184</v>
@@ -2859,17 +3048,15 @@
         <v>595</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ABS027</t>
-        </is>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>54</v>
       </c>
       <c r="B27">
         <v>150.55676</v>
       </c>
       <c r="C27">
-        <v>-33.55193</v>
+        <v>-33.551929999999999</v>
       </c>
       <c r="D27">
         <v>159</v>
@@ -2908,7 +3095,7 @@
         <v>102</v>
       </c>
       <c r="P27">
-        <v>15.17083358764648</v>
+        <v>15.170833587646481</v>
       </c>
       <c r="Q27">
         <v>10.97500038146973</v>
@@ -2932,7 +3119,7 @@
         <v>10.10000038146973</v>
       </c>
       <c r="X27">
-        <v>9.100000381469727</v>
+        <v>9.1000003814697266</v>
       </c>
       <c r="Y27">
         <v>10.10000038146973</v>
@@ -2953,14 +3140,12 @@
         <v>377</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ABS028</t>
-        </is>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>55</v>
       </c>
       <c r="B28">
-        <v>150.57394</v>
+        <v>150.57393999999999</v>
       </c>
       <c r="C28">
         <v>-33.53172</v>
@@ -3002,7 +3187,7 @@
         <v>110</v>
       </c>
       <c r="P28">
-        <v>14.80833339691162</v>
+        <v>14.808333396911619</v>
       </c>
       <c r="Q28">
         <v>10.80000019073486</v>
@@ -3023,13 +3208,13 @@
         <v>12.5</v>
       </c>
       <c r="W28">
-        <v>9.800000190734863</v>
+        <v>9.8000001907348633</v>
       </c>
       <c r="X28">
-        <v>8.800000190734863</v>
+        <v>8.8000001907348633</v>
       </c>
       <c r="Y28">
-        <v>9.800000190734863</v>
+        <v>9.8000001907348633</v>
       </c>
       <c r="Z28">
         <v>12.19999980926514</v>
@@ -3047,11 +3232,9 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ABS029</t>
-        </is>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>56</v>
       </c>
       <c r="B29">
         <v>151.07002</v>
@@ -3096,10 +3279,10 @@
         <v>82</v>
       </c>
       <c r="P29">
-        <v>16.58333396911621</v>
+        <v>16.583333969116211</v>
       </c>
       <c r="Q29">
-        <v>8.533332824707031</v>
+        <v>8.5333328247070313</v>
       </c>
       <c r="R29">
         <v>21.10000038146973</v>
@@ -3141,17 +3324,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>ABS030</t>
-        </is>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>57</v>
       </c>
       <c r="B30">
-        <v>150.689</v>
+        <v>150.68899999999999</v>
       </c>
       <c r="C30">
-        <v>-33.14184</v>
+        <v>-33.141840000000002</v>
       </c>
       <c r="D30">
         <v>123</v>
@@ -3193,7 +3374,7 @@
         <v>15.75833320617676</v>
       </c>
       <c r="Q30">
-        <v>11.71666622161865</v>
+        <v>11.716666221618651</v>
       </c>
       <c r="R30">
         <v>21.5</v>
@@ -3214,7 +3395,7 @@
         <v>10.39999961853027</v>
       </c>
       <c r="X30">
-        <v>9.399999618530273</v>
+        <v>9.3999996185302734</v>
       </c>
       <c r="Y30">
         <v>10.5</v>
@@ -3235,17 +3416,15 @@
         <v>348</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>ABS031</t>
-        </is>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>58</v>
       </c>
       <c r="B31">
         <v>150.69537</v>
       </c>
       <c r="C31">
-        <v>-33.1823</v>
+        <v>-33.182299999999998</v>
       </c>
       <c r="D31">
         <v>125</v>
@@ -3284,10 +3463,10 @@
         <v>89</v>
       </c>
       <c r="P31">
-        <v>15.73333358764648</v>
+        <v>15.733333587646481</v>
       </c>
       <c r="Q31">
-        <v>11.51666641235352</v>
+        <v>11.516666412353519</v>
       </c>
       <c r="R31">
         <v>21.39999961853027</v>
@@ -3329,11 +3508,9 @@
         <v>358</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>ABS032</t>
-        </is>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>59</v>
       </c>
       <c r="B32">
         <v>150.2388</v>
@@ -3381,7 +3558,7 @@
         <v>12.07083320617676</v>
       </c>
       <c r="Q32">
-        <v>9.925000190734863</v>
+        <v>9.9250001907348633</v>
       </c>
       <c r="R32">
         <v>18.10000038146973</v>
@@ -3396,19 +3573,19 @@
         <v>12.5</v>
       </c>
       <c r="V32">
-        <v>9.399999618530273</v>
+        <v>9.3999996185302734</v>
       </c>
       <c r="W32">
-        <v>6.599999904632568</v>
+        <v>6.5999999046325684</v>
       </c>
       <c r="X32">
-        <v>5.599999904632568</v>
+        <v>5.5999999046325684</v>
       </c>
       <c r="Y32">
-        <v>6.699999809265137</v>
+        <v>6.6999998092651367</v>
       </c>
       <c r="Z32">
-        <v>9.100000381469727</v>
+        <v>9.1000003814697266</v>
       </c>
       <c r="AA32">
         <v>12</v>
@@ -3423,14 +3600,12 @@
         <v>993</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>ABS033</t>
-        </is>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>60</v>
       </c>
       <c r="B33">
-        <v>150.25543</v>
+        <v>150.25542999999999</v>
       </c>
       <c r="C33">
         <v>-33.30453</v>
@@ -3472,10 +3647,10 @@
         <v>87</v>
       </c>
       <c r="P33">
-        <v>11.72916698455811</v>
+        <v>11.729166984558111</v>
       </c>
       <c r="Q33">
-        <v>9.975000381469727</v>
+        <v>9.9750003814697266</v>
       </c>
       <c r="R33">
         <v>17.70000076293945</v>
@@ -3493,16 +3668,16 @@
         <v>9</v>
       </c>
       <c r="W33">
-        <v>6.300000190734863</v>
+        <v>6.3000001907348633</v>
       </c>
       <c r="X33">
-        <v>5.300000190734863</v>
+        <v>5.3000001907348633</v>
       </c>
       <c r="Y33">
-        <v>6.300000190734863</v>
+        <v>6.3000001907348633</v>
       </c>
       <c r="Z33">
-        <v>8.800000190734863</v>
+        <v>8.8000001907348633</v>
       </c>
       <c r="AA33">
         <v>11.69999980926514</v>
@@ -3517,17 +3692,15 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>ABS034</t>
-        </is>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>61</v>
       </c>
       <c r="B34">
-        <v>150.59972</v>
+        <v>150.59971999999999</v>
       </c>
       <c r="C34">
-        <v>-33.44346</v>
+        <v>-33.443460000000002</v>
       </c>
       <c r="D34">
         <v>168</v>
@@ -3566,7 +3739,7 @@
         <v>108</v>
       </c>
       <c r="P34">
-        <v>14.84583282470703</v>
+        <v>14.845832824707029</v>
       </c>
       <c r="Q34">
         <v>10.47499942779541</v>
@@ -3587,13 +3760,13 @@
         <v>12.60000038146973</v>
       </c>
       <c r="W34">
-        <v>9.899999618530273</v>
+        <v>9.8999996185302734</v>
       </c>
       <c r="X34">
-        <v>8.899999618530273</v>
+        <v>8.8999996185302734</v>
       </c>
       <c r="Y34">
-        <v>9.800000190734863</v>
+        <v>9.8000001907348633</v>
       </c>
       <c r="Z34">
         <v>12.19999980926514</v>
@@ -3611,17 +3784,15 @@
         <v>479</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>ABS035</t>
-        </is>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>62</v>
       </c>
       <c r="B35">
-        <v>150.49756</v>
+        <v>150.49755999999999</v>
       </c>
       <c r="C35">
-        <v>-34.9172</v>
+        <v>-34.917200000000001</v>
       </c>
       <c r="D35">
         <v>99</v>
@@ -3660,10 +3831,10 @@
         <v>76</v>
       </c>
       <c r="P35">
-        <v>16.11666679382324</v>
+        <v>16.116666793823239</v>
       </c>
       <c r="Q35">
-        <v>9.266666412353516</v>
+        <v>9.2666664123535156</v>
       </c>
       <c r="R35">
         <v>20.79999923706055</v>
@@ -3705,17 +3876,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>ABS036</t>
-        </is>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>63</v>
       </c>
       <c r="B36">
-        <v>150.39751</v>
+        <v>150.39751000000001</v>
       </c>
       <c r="C36">
-        <v>-33.51282</v>
+        <v>-33.512819999999998</v>
       </c>
       <c r="D36">
         <v>170</v>
@@ -3754,10 +3923,10 @@
         <v>104</v>
       </c>
       <c r="P36">
-        <v>12.51666641235352</v>
+        <v>12.516666412353519</v>
       </c>
       <c r="Q36">
-        <v>9.566666603088379</v>
+        <v>9.5666666030883789</v>
       </c>
       <c r="R36">
         <v>18.20000076293945</v>
@@ -3775,16 +3944,16 @@
         <v>10</v>
       </c>
       <c r="W36">
-        <v>7.300000190734863</v>
+        <v>7.3000001907348633</v>
       </c>
       <c r="X36">
-        <v>6.400000095367432</v>
+        <v>6.4000000953674316</v>
       </c>
       <c r="Y36">
-        <v>7.300000190734863</v>
+        <v>7.3000001907348633</v>
       </c>
       <c r="Z36">
-        <v>9.699999809265137</v>
+        <v>9.6999998092651367</v>
       </c>
       <c r="AA36">
         <v>12.5</v>
@@ -3799,17 +3968,15 @@
         <v>876</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>ABS037</t>
-        </is>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>64</v>
       </c>
       <c r="B37">
         <v>150.54413</v>
       </c>
       <c r="C37">
-        <v>-34.34285</v>
+        <v>-34.342849999999999</v>
       </c>
       <c r="D37">
         <v>99</v>
@@ -3848,10 +4015,10 @@
         <v>79</v>
       </c>
       <c r="P37">
-        <v>14.29166698455811</v>
+        <v>14.291666984558111</v>
       </c>
       <c r="Q37">
-        <v>9.833333015441895</v>
+        <v>9.8333330154418945</v>
       </c>
       <c r="R37">
         <v>19.5</v>
@@ -3872,10 +4039,10 @@
         <v>9.5</v>
       </c>
       <c r="X37">
-        <v>8.399999618530273</v>
+        <v>8.3999996185302734</v>
       </c>
       <c r="Y37">
-        <v>9.399999618530273</v>
+        <v>9.3999996185302734</v>
       </c>
       <c r="Z37">
         <v>11.69999980926514</v>
@@ -3893,14 +4060,12 @@
         <v>485</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>ABS038</t>
-        </is>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>65</v>
       </c>
       <c r="B38">
-        <v>150.50786</v>
+        <v>150.50785999999999</v>
       </c>
       <c r="C38">
         <v>-34.35266</v>
@@ -3942,10 +4107,10 @@
         <v>80</v>
       </c>
       <c r="P38">
-        <v>13.65416717529297</v>
+        <v>13.654167175292971</v>
       </c>
       <c r="Q38">
-        <v>9.891666412353516</v>
+        <v>9.8916664123535156</v>
       </c>
       <c r="R38">
         <v>19</v>
@@ -3963,13 +4128,13 @@
         <v>11.39999961853027</v>
       </c>
       <c r="W38">
-        <v>8.800000190734863</v>
+        <v>8.8000001907348633</v>
       </c>
       <c r="X38">
-        <v>7.699999809265137</v>
+        <v>7.6999998092651367</v>
       </c>
       <c r="Y38">
-        <v>8.699999809265137</v>
+        <v>8.6999998092651367</v>
       </c>
       <c r="Z38">
         <v>11</v>
@@ -3987,17 +4152,15 @@
         <v>604</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>ABS039</t>
-        </is>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>66</v>
       </c>
       <c r="B39">
-        <v>150.47408</v>
+        <v>150.47407999999999</v>
       </c>
       <c r="C39">
-        <v>-34.3594</v>
+        <v>-34.359400000000001</v>
       </c>
       <c r="D39">
         <v>101</v>
@@ -4057,10 +4220,10 @@
         <v>11.10000038146973</v>
       </c>
       <c r="W39">
-        <v>8.399999618530273</v>
+        <v>8.3999996185302734</v>
       </c>
       <c r="X39">
-        <v>7.400000095367432</v>
+        <v>7.4000000953674316</v>
       </c>
       <c r="Y39">
         <v>8.5</v>
@@ -4081,17 +4244,15 @@
         <v>649</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>ABS040</t>
-        </is>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>67</v>
       </c>
       <c r="B40">
-        <v>150.46942</v>
+        <v>150.46942000000001</v>
       </c>
       <c r="C40">
-        <v>-34.35747</v>
+        <v>-34.357469999999999</v>
       </c>
       <c r="D40">
         <v>102</v>
@@ -4130,10 +4291,10 @@
         <v>80</v>
       </c>
       <c r="P40">
-        <v>13.40416717529297</v>
+        <v>13.404167175292971</v>
       </c>
       <c r="Q40">
-        <v>9.841666221618652</v>
+        <v>9.8416662216186523</v>
       </c>
       <c r="R40">
         <v>18.79999923706055</v>
@@ -4151,13 +4312,13 @@
         <v>11.10000038146973</v>
       </c>
       <c r="W40">
-        <v>8.399999618530273</v>
+        <v>8.3999996185302734</v>
       </c>
       <c r="X40">
-        <v>7.400000095367432</v>
+        <v>7.4000000953674316</v>
       </c>
       <c r="Y40">
-        <v>8.399999618530273</v>
+        <v>8.3999996185302734</v>
       </c>
       <c r="Z40">
         <v>10.69999980926514</v>
@@ -4175,17 +4336,15 @@
         <v>656</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>ABS041</t>
-        </is>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>68</v>
       </c>
       <c r="B41">
-        <v>151.06561</v>
+        <v>151.06560999999999</v>
       </c>
       <c r="C41">
-        <v>-33.35354</v>
+        <v>-33.353540000000002</v>
       </c>
       <c r="D41">
         <v>128</v>
@@ -4224,10 +4383,10 @@
         <v>84</v>
       </c>
       <c r="P41">
-        <v>16.45416641235352</v>
+        <v>16.454166412353519</v>
       </c>
       <c r="Q41">
-        <v>9.925000190734863</v>
+        <v>9.9250001907348633</v>
       </c>
       <c r="R41">
         <v>21.60000038146973</v>
@@ -4269,17 +4428,15 @@
         <v>206</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>ABS042</t>
-        </is>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>69</v>
       </c>
       <c r="B42">
         <v>151.50116</v>
       </c>
       <c r="C42">
-        <v>-32.83299</v>
+        <v>-32.832990000000002</v>
       </c>
       <c r="D42">
         <v>92</v>
@@ -4318,10 +4475,10 @@
         <v>72</v>
       </c>
       <c r="P42">
-        <v>17.8166675567627</v>
+        <v>17.816667556762699</v>
       </c>
       <c r="Q42">
-        <v>11.23333358764648</v>
+        <v>11.233333587646481</v>
       </c>
       <c r="R42">
         <v>23.29999923706055</v>
@@ -4363,17 +4520,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>ABS043</t>
-        </is>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>70</v>
       </c>
       <c r="B43">
-        <v>151.50436</v>
+        <v>151.50435999999999</v>
       </c>
       <c r="C43">
-        <v>-32.83482</v>
+        <v>-32.834820000000001</v>
       </c>
       <c r="D43">
         <v>93</v>
@@ -4415,7 +4570,7 @@
         <v>17.77499961853027</v>
       </c>
       <c r="Q43">
-        <v>11.08333301544189</v>
+        <v>11.083333015441889</v>
       </c>
       <c r="R43">
         <v>23.20000076293945</v>
@@ -4457,17 +4612,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>ABS044</t>
-        </is>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>71</v>
       </c>
       <c r="B44">
         <v>150.76682</v>
       </c>
       <c r="C44">
-        <v>-32.89966</v>
+        <v>-32.899659999999997</v>
       </c>
       <c r="D44">
         <v>127</v>
@@ -4530,7 +4683,7 @@
         <v>10.69999980926514</v>
       </c>
       <c r="X44">
-        <v>9.600000381469727</v>
+        <v>9.6000003814697266</v>
       </c>
       <c r="Y44">
         <v>10.89999961853027</v>
@@ -4551,17 +4704,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>ABS045</t>
-        </is>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>72</v>
       </c>
       <c r="B45">
-        <v>150.3009</v>
+        <v>150.30090000000001</v>
       </c>
       <c r="C45">
-        <v>-34.67128</v>
+        <v>-34.671280000000003</v>
       </c>
       <c r="D45">
         <v>106</v>
@@ -4603,7 +4754,7 @@
         <v>13.35000038146973</v>
       </c>
       <c r="Q45">
-        <v>10.21666622161865</v>
+        <v>10.216666221618651</v>
       </c>
       <c r="R45">
         <v>18.89999961853027</v>
@@ -4621,13 +4772,13 @@
         <v>10.89999961853027</v>
       </c>
       <c r="W45">
-        <v>8.199999809265137</v>
+        <v>8.1999998092651367</v>
       </c>
       <c r="X45">
-        <v>7.300000190734863</v>
+        <v>7.3000001907348633</v>
       </c>
       <c r="Y45">
-        <v>8.399999618530273</v>
+        <v>8.3999996185302734</v>
       </c>
       <c r="Z45">
         <v>10.69999980926514</v>
@@ -4645,17 +4796,15 @@
         <v>622</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>ABS046</t>
-        </is>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>73</v>
       </c>
       <c r="B46">
         <v>150.39543</v>
       </c>
       <c r="C46">
-        <v>-34.77435</v>
+        <v>-34.774349999999998</v>
       </c>
       <c r="D46">
         <v>103</v>
@@ -4694,10 +4843,10 @@
         <v>76</v>
       </c>
       <c r="P46">
-        <v>15.33333301544189</v>
+        <v>15.333333015441889</v>
       </c>
       <c r="Q46">
-        <v>9.199999809265137</v>
+        <v>9.1999998092651367</v>
       </c>
       <c r="R46">
         <v>20.29999923706055</v>
@@ -4718,7 +4867,7 @@
         <v>10.60000038146973</v>
       </c>
       <c r="X46">
-        <v>9.600000381469727</v>
+        <v>9.6000003814697266</v>
       </c>
       <c r="Y46">
         <v>10.69999980926514</v>
@@ -4739,11 +4888,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>ABS047</t>
-        </is>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>74</v>
       </c>
       <c r="B47">
         <v>150.39343</v>
@@ -4788,10 +4935,10 @@
         <v>77</v>
       </c>
       <c r="P47">
-        <v>14.62083339691162</v>
+        <v>14.620833396911619</v>
       </c>
       <c r="Q47">
-        <v>9.108333587646484</v>
+        <v>9.1083335876464844</v>
       </c>
       <c r="R47">
         <v>19.39999961853027</v>
@@ -4812,7 +4959,7 @@
         <v>10.19999980926514</v>
       </c>
       <c r="X47">
-        <v>9.300000190734863</v>
+        <v>9.3000001907348633</v>
       </c>
       <c r="Y47">
         <v>10.10000038146973</v>
@@ -4833,17 +4980,15 @@
         <v>414</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>ABS048</t>
-        </is>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>75</v>
       </c>
       <c r="B48">
         <v>151.06932</v>
       </c>
       <c r="C48">
-        <v>-33.33224</v>
+        <v>-33.332239999999999</v>
       </c>
       <c r="D48">
         <v>128</v>
@@ -4885,7 +5030,7 @@
         <v>16.4375</v>
       </c>
       <c r="Q48">
-        <v>9.925000190734863</v>
+        <v>9.9250001907348633</v>
       </c>
       <c r="R48">
         <v>21.60000038146973</v>
@@ -4927,17 +5072,15 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>ABS049</t>
-        </is>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>76</v>
       </c>
       <c r="B49">
-        <v>150.67812</v>
+        <v>150.67812000000001</v>
       </c>
       <c r="C49">
-        <v>-33.26627</v>
+        <v>-33.266269999999999</v>
       </c>
       <c r="D49">
         <v>121</v>
@@ -5000,7 +5143,7 @@
         <v>10.60000038146973</v>
       </c>
       <c r="X49">
-        <v>9.699999809265137</v>
+        <v>9.6999998092651367</v>
       </c>
       <c r="Y49">
         <v>10.69999980926514</v>
@@ -5021,17 +5164,15 @@
         <v>324</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>ABS050</t>
-        </is>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>77</v>
       </c>
       <c r="B50">
         <v>150.40016</v>
       </c>
       <c r="C50">
-        <v>-35.09644</v>
+        <v>-35.096440000000001</v>
       </c>
       <c r="D50">
         <v>101</v>
@@ -5070,10 +5211,10 @@
         <v>77</v>
       </c>
       <c r="P50">
-        <v>14.72916698455811</v>
+        <v>14.729166984558111</v>
       </c>
       <c r="Q50">
-        <v>9.041666984558105</v>
+        <v>9.0416669845581055</v>
       </c>
       <c r="R50">
         <v>19.5</v>
@@ -5094,7 +5235,7 @@
         <v>10.39999961853027</v>
       </c>
       <c r="X50">
-        <v>9.399999618530273</v>
+        <v>9.3999996185302734</v>
       </c>
       <c r="Y50">
         <v>10.30000019073486</v>
@@ -5115,17 +5256,15 @@
         <v>397</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>ABS051</t>
-        </is>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>78</v>
       </c>
       <c r="B51">
-        <v>150.49948</v>
+        <v>150.49948000000001</v>
       </c>
       <c r="C51">
-        <v>-34.99328</v>
+        <v>-34.993279999999999</v>
       </c>
       <c r="D51">
         <v>98</v>
@@ -5164,10 +5303,10 @@
         <v>77</v>
       </c>
       <c r="P51">
-        <v>15.78333282470703</v>
+        <v>15.783332824707029</v>
       </c>
       <c r="Q51">
-        <v>9.083333015441895</v>
+        <v>9.0833330154418945</v>
       </c>
       <c r="R51">
         <v>20.39999961853027</v>
@@ -5209,17 +5348,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>ABS052</t>
-        </is>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>79</v>
       </c>
       <c r="B52">
         <v>150.39847</v>
       </c>
       <c r="C52">
-        <v>-34.91397</v>
+        <v>-34.913969999999999</v>
       </c>
       <c r="D52">
         <v>96</v>
@@ -5261,7 +5398,7 @@
         <v>15.8125</v>
       </c>
       <c r="Q52">
-        <v>9.324999809265137</v>
+        <v>9.3249998092651367</v>
       </c>
       <c r="R52">
         <v>20.70000076293945</v>
@@ -5303,17 +5440,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>ABS053</t>
-        </is>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>80</v>
       </c>
       <c r="B53">
-        <v>150.41679</v>
+        <v>150.41678999999999</v>
       </c>
       <c r="C53">
-        <v>-34.84681</v>
+        <v>-34.846809999999998</v>
       </c>
       <c r="D53">
         <v>98</v>
@@ -5352,10 +5487,10 @@
         <v>75</v>
       </c>
       <c r="P53">
-        <v>16.40833282470703</v>
+        <v>16.408332824707031</v>
       </c>
       <c r="Q53">
-        <v>9.166666984558105</v>
+        <v>9.1666669845581055</v>
       </c>
       <c r="R53">
         <v>21.20000076293945</v>
@@ -5397,17 +5532,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>ABS054</t>
-        </is>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>81</v>
       </c>
       <c r="B54">
         <v>150.37033</v>
       </c>
       <c r="C54">
-        <v>-33.49452</v>
+        <v>-33.494520000000001</v>
       </c>
       <c r="D54">
         <v>164</v>
@@ -5446,10 +5579,10 @@
         <v>102</v>
       </c>
       <c r="P54">
-        <v>12.34583377838135</v>
+        <v>12.345833778381349</v>
       </c>
       <c r="Q54">
-        <v>9.741666793823242</v>
+        <v>9.7416667938232422</v>
       </c>
       <c r="R54">
         <v>18.10000038146973</v>
@@ -5464,16 +5597,16 @@
         <v>12.89999961853027</v>
       </c>
       <c r="V54">
-        <v>9.800000190734863</v>
+        <v>9.8000001907348633</v>
       </c>
       <c r="W54">
-        <v>7.099999904632568</v>
+        <v>7.0999999046325684</v>
       </c>
       <c r="X54">
-        <v>6.099999904632568</v>
+        <v>6.0999999046325684</v>
       </c>
       <c r="Y54">
-        <v>7.099999904632568</v>
+        <v>7.0999999046325684</v>
       </c>
       <c r="Z54">
         <v>9.5</v>
@@ -5491,11 +5624,9 @@
         <v>916</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>ABS055</t>
-        </is>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>82</v>
       </c>
       <c r="B55">
         <v>150.6942</v>
@@ -5543,7 +5674,7 @@
         <v>15.67916679382324</v>
       </c>
       <c r="Q55">
-        <v>11.30833339691162</v>
+        <v>11.308333396911619</v>
       </c>
       <c r="R55">
         <v>21.29999923706055</v>
@@ -5585,17 +5716,15 @@
         <v>374</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>ABS056</t>
-        </is>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>83</v>
       </c>
       <c r="B56">
-        <v>150.90987</v>
+        <v>150.90987000000001</v>
       </c>
       <c r="C56">
-        <v>-32.79934</v>
+        <v>-32.799340000000001</v>
       </c>
       <c r="D56">
         <v>124</v>
@@ -5634,10 +5763,10 @@
         <v>91</v>
       </c>
       <c r="P56">
-        <v>16.22083282470703</v>
+        <v>16.220832824707031</v>
       </c>
       <c r="Q56">
-        <v>11.20833301544189</v>
+        <v>11.208333015441889</v>
       </c>
       <c r="R56">
         <v>22</v>
@@ -5658,7 +5787,7 @@
         <v>10.80000019073486</v>
       </c>
       <c r="X56">
-        <v>9.800000190734863</v>
+        <v>9.8000001907348633</v>
       </c>
       <c r="Y56">
         <v>10.89999961853027</v>
@@ -5679,17 +5808,15 @@
         <v>311</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>ABS057</t>
-        </is>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>84</v>
       </c>
       <c r="B57">
-        <v>150.7211</v>
+        <v>150.72110000000001</v>
       </c>
       <c r="C57">
-        <v>-33.07411</v>
+        <v>-33.074109999999997</v>
       </c>
       <c r="D57">
         <v>124</v>
@@ -5728,10 +5855,10 @@
         <v>88</v>
       </c>
       <c r="P57">
-        <v>16.00833320617676</v>
+        <v>16.008333206176761</v>
       </c>
       <c r="Q57">
-        <v>11.51666641235352</v>
+        <v>11.516666412353519</v>
       </c>
       <c r="R57">
         <v>21.79999923706055</v>
@@ -5752,7 +5879,7 @@
         <v>10.60000038146973</v>
       </c>
       <c r="X57">
-        <v>9.600000381469727</v>
+        <v>9.6000003814697266</v>
       </c>
       <c r="Y57">
         <v>10.69999980926514</v>
@@ -5773,14 +5900,12 @@
         <v>336</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>ABS058</t>
-        </is>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>85</v>
       </c>
       <c r="B58">
-        <v>150.72148</v>
+        <v>150.72148000000001</v>
       </c>
       <c r="C58">
         <v>-33.20185</v>
@@ -5822,10 +5947,10 @@
         <v>88</v>
       </c>
       <c r="P58">
-        <v>15.89166641235352</v>
+        <v>15.891666412353519</v>
       </c>
       <c r="Q58">
-        <v>11.26666641235352</v>
+        <v>11.266666412353519</v>
       </c>
       <c r="R58">
         <v>21.5</v>
@@ -5846,7 +5971,7 @@
         <v>10.69999980926514</v>
       </c>
       <c r="X58">
-        <v>9.699999809265137</v>
+        <v>9.6999998092651367</v>
       </c>
       <c r="Y58">
         <v>10.69999980926514</v>
@@ -5867,17 +5992,15 @@
         <v>331</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>ABS059</t>
-        </is>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>86</v>
       </c>
       <c r="B59">
-        <v>150.84135</v>
+        <v>150.84135000000001</v>
       </c>
       <c r="C59">
-        <v>-33.38217</v>
+        <v>-33.382170000000002</v>
       </c>
       <c r="D59">
         <v>120</v>
@@ -5916,10 +6039,10 @@
         <v>81</v>
       </c>
       <c r="P59">
-        <v>16.55833435058594</v>
+        <v>16.558334350585941</v>
       </c>
       <c r="Q59">
-        <v>10.98333358764648</v>
+        <v>10.983333587646481</v>
       </c>
       <c r="R59">
         <v>21.79999923706055</v>
@@ -5961,14 +6084,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>ABS060</t>
-        </is>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>87</v>
       </c>
       <c r="B60">
-        <v>150.50943</v>
+        <v>150.50943000000001</v>
       </c>
       <c r="C60">
         <v>-34.31476</v>
@@ -6010,10 +6131,10 @@
         <v>77</v>
       </c>
       <c r="P60">
-        <v>14.39583301544189</v>
+        <v>14.395833015441889</v>
       </c>
       <c r="Q60">
-        <v>9.858333587646484</v>
+        <v>9.8583335876464844</v>
       </c>
       <c r="R60">
         <v>19.60000038146973</v>
@@ -6031,13 +6152,13 @@
         <v>12.19999980926514</v>
       </c>
       <c r="W60">
-        <v>9.600000381469727</v>
+        <v>9.6000003814697266</v>
       </c>
       <c r="X60">
         <v>8.5</v>
       </c>
       <c r="Y60">
-        <v>9.600000381469727</v>
+        <v>9.6000003814697266</v>
       </c>
       <c r="Z60">
         <v>11.89999961853027</v>
@@ -6055,17 +6176,15 @@
         <v>451</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>ABS061</t>
-        </is>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>88</v>
       </c>
       <c r="B61">
         <v>151.50082</v>
       </c>
       <c r="C61">
-        <v>-32.84529</v>
+        <v>-32.845289999999999</v>
       </c>
       <c r="D61">
         <v>94</v>
@@ -6104,10 +6223,10 @@
         <v>72</v>
       </c>
       <c r="P61">
-        <v>17.72916603088379</v>
+        <v>17.729166030883789</v>
       </c>
       <c r="Q61">
-        <v>10.95833301544189</v>
+        <v>10.958333015441889</v>
       </c>
       <c r="R61">
         <v>23.20000076293945</v>
@@ -6149,17 +6268,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>ABS062</t>
-        </is>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>89</v>
       </c>
       <c r="B62">
-        <v>150.70393</v>
+        <v>150.70393000000001</v>
       </c>
       <c r="C62">
-        <v>-33.18133</v>
+        <v>-33.181330000000003</v>
       </c>
       <c r="D62">
         <v>125</v>
@@ -6198,7 +6315,7 @@
         <v>89</v>
       </c>
       <c r="P62">
-        <v>15.76666641235352</v>
+        <v>15.766666412353519</v>
       </c>
       <c r="Q62">
         <v>11.44999980926514</v>
@@ -6243,17 +6360,15 @@
         <v>357</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>ABS063</t>
-        </is>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>90</v>
       </c>
       <c r="B63">
-        <v>150.69408</v>
+        <v>150.69408000000001</v>
       </c>
       <c r="C63">
-        <v>-33.20511</v>
+        <v>-33.205109999999998</v>
       </c>
       <c r="D63">
         <v>127</v>
@@ -6295,7 +6410,7 @@
         <v>15.67916679382324</v>
       </c>
       <c r="Q63">
-        <v>11.30833339691162</v>
+        <v>11.308333396911619</v>
       </c>
       <c r="R63">
         <v>21.29999923706055</v>

--- a/Processed_data/Site_Precip_Temp_Elv.xlsx
+++ b/Processed_data/Site_Precip_Temp_Elv.xlsx
@@ -1,308 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westernsydneyedu-my.sharepoint.com/personal/90957135_westernsydney_edu_au/Documents/ABS_FIRE/ABS_FIRE_MYCO/Processed_data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_92335DC08F79A8D366075C52F37BD2720A4CF3BD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6642AA9-FAE5-4A56-A28E-0763ACEAEC93}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>precip_Jan</t>
-  </si>
-  <si>
-    <t>precip_Feb</t>
-  </si>
-  <si>
-    <t>precip_Mar</t>
-  </si>
-  <si>
-    <t>precip_Apr</t>
-  </si>
-  <si>
-    <t>precip_May</t>
-  </si>
-  <si>
-    <t>precip_Jun</t>
-  </si>
-  <si>
-    <t>precip_Jul</t>
-  </si>
-  <si>
-    <t>precip_Aug</t>
-  </si>
-  <si>
-    <t>precip_Sep</t>
-  </si>
-  <si>
-    <t>precip_Oct</t>
-  </si>
-  <si>
-    <t>precip_Nov</t>
-  </si>
-  <si>
-    <t>precip_Dec</t>
-  </si>
-  <si>
-    <t>Annual_Temp</t>
-  </si>
-  <si>
-    <t>Annual_Prec</t>
-  </si>
-  <si>
-    <t>Tavg_Jan</t>
-  </si>
-  <si>
-    <t>Tavg_Feb</t>
-  </si>
-  <si>
-    <t>Tavg_Mar</t>
-  </si>
-  <si>
-    <t>Tavg_Apr</t>
-  </si>
-  <si>
-    <t>Tavg_May</t>
-  </si>
-  <si>
-    <t>Tavg_Jun</t>
-  </si>
-  <si>
-    <t>Tavg_Jul</t>
-  </si>
-  <si>
-    <t>Tavg_Aug</t>
-  </si>
-  <si>
-    <t>Tavg_Sep</t>
-  </si>
-  <si>
-    <t>Tavg_Oct</t>
-  </si>
-  <si>
-    <t>Tavg_Nov</t>
-  </si>
-  <si>
-    <t>Tavg_Dec</t>
-  </si>
-  <si>
-    <t>ABS001</t>
-  </si>
-  <si>
-    <t>ABS002</t>
-  </si>
-  <si>
-    <t>ABS003</t>
-  </si>
-  <si>
-    <t>ABS004</t>
-  </si>
-  <si>
-    <t>ABS005</t>
-  </si>
-  <si>
-    <t>ABS006</t>
-  </si>
-  <si>
-    <t>ABS007</t>
-  </si>
-  <si>
-    <t>ABS008</t>
-  </si>
-  <si>
-    <t>ABS009</t>
-  </si>
-  <si>
-    <t>ABS010</t>
-  </si>
-  <si>
-    <t>ABS011</t>
-  </si>
-  <si>
-    <t>ABS012</t>
-  </si>
-  <si>
-    <t>ABS014</t>
-  </si>
-  <si>
-    <t>ABS015</t>
-  </si>
-  <si>
-    <t>ABS016</t>
-  </si>
-  <si>
-    <t>ABS017</t>
-  </si>
-  <si>
-    <t>ABS018</t>
-  </si>
-  <si>
-    <t>ABS019</t>
-  </si>
-  <si>
-    <t>ABS020</t>
-  </si>
-  <si>
-    <t>ABS021</t>
-  </si>
-  <si>
-    <t>ABS022</t>
-  </si>
-  <si>
-    <t>ABS023</t>
-  </si>
-  <si>
-    <t>ABS024</t>
-  </si>
-  <si>
-    <t>ABS025</t>
-  </si>
-  <si>
-    <t>ABS026</t>
-  </si>
-  <si>
-    <t>ABS027</t>
-  </si>
-  <si>
-    <t>ABS028</t>
-  </si>
-  <si>
-    <t>ABS029</t>
-  </si>
-  <si>
-    <t>ABS030</t>
-  </si>
-  <si>
-    <t>ABS031</t>
-  </si>
-  <si>
-    <t>ABS032</t>
-  </si>
-  <si>
-    <t>ABS033</t>
-  </si>
-  <si>
-    <t>ABS034</t>
-  </si>
-  <si>
-    <t>ABS035</t>
-  </si>
-  <si>
-    <t>ABS036</t>
-  </si>
-  <si>
-    <t>ABS037</t>
-  </si>
-  <si>
-    <t>ABS038</t>
-  </si>
-  <si>
-    <t>ABS039</t>
-  </si>
-  <si>
-    <t>ABS040</t>
-  </si>
-  <si>
-    <t>ABS041</t>
-  </si>
-  <si>
-    <t>ABS042</t>
-  </si>
-  <si>
-    <t>ABS043</t>
-  </si>
-  <si>
-    <t>ABS044</t>
-  </si>
-  <si>
-    <t>ABS045</t>
-  </si>
-  <si>
-    <t>ABS046</t>
-  </si>
-  <si>
-    <t>ABS047</t>
-  </si>
-  <si>
-    <t>ABS048</t>
-  </si>
-  <si>
-    <t>ABS049</t>
-  </si>
-  <si>
-    <t>ABS050</t>
-  </si>
-  <si>
-    <t>ABS051</t>
-  </si>
-  <si>
-    <t>ABS052</t>
-  </si>
-  <si>
-    <t>ABS053</t>
-  </si>
-  <si>
-    <t>ABS054</t>
-  </si>
-  <si>
-    <t>ABS055</t>
-  </si>
-  <si>
-    <t>ABS056</t>
-  </si>
-  <si>
-    <t>ABS057</t>
-  </si>
-  <si>
-    <t>ABS058</t>
-  </si>
-  <si>
-    <t>ABS059</t>
-  </si>
-  <si>
-    <t>ABS060</t>
-  </si>
-  <si>
-    <t>ABS061</t>
-  </si>
-  <si>
-    <t>ABS062</t>
-  </si>
-  <si>
-    <t>ABS063</t>
-  </si>
-  <si>
-    <t>elev</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -402,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -436,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -471,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -647,113 +350,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>91</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lat</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>precip_Jan</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>precip_Feb</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>precip_Mar</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>precip_Apr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>precip_May</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>precip_Jun</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>precip_Jul</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>precip_Aug</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>precip_Sep</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>precip_Oct</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>precip_Nov</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>precip_Dec</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Annual_Temp</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Annual_Prec</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Tavg_Jan</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Tavg_Feb</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Tavg_Mar</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Tavg_Apr</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Tavg_May</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Tavg_Jun</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Tavg_Jul</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Tavg_Aug</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Tavg_Sep</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Tavg_Oct</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Tavg_Nov</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Tavg_Dec</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>wc2.1_30s_elev</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>29</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ABS001</t>
+        </is>
       </c>
       <c r="B2">
-        <v>150.36008000000001</v>
+        <v>150.36008</v>
       </c>
       <c r="C2">
         <v>-33.66375</v>
@@ -795,10 +558,10 @@
         <v>106</v>
       </c>
       <c r="P2">
-        <v>12.558333396911619</v>
+        <v>12.55833339691162</v>
       </c>
       <c r="Q2">
-        <v>9.5500001907348633</v>
+        <v>9.550000190734863</v>
       </c>
       <c r="R2">
         <v>18.20000076293945</v>
@@ -816,16 +579,16 @@
         <v>10.19999980926514</v>
       </c>
       <c r="W2">
-        <v>7.4000000953674316</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="X2">
         <v>6.5</v>
       </c>
       <c r="Y2">
-        <v>7.4000000953674316</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="Z2">
-        <v>9.8000001907348633</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="AA2">
         <v>12.5</v>
@@ -840,15 +603,17 @@
         <v>890</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>30</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ABS002</t>
+        </is>
       </c>
       <c r="B3">
-        <v>150.39411999999999</v>
+        <v>150.39412</v>
       </c>
       <c r="C3">
-        <v>-33.640830000000001</v>
+        <v>-33.64083</v>
       </c>
       <c r="D3">
         <v>174</v>
@@ -887,10 +652,10 @@
         <v>105</v>
       </c>
       <c r="P3">
-        <v>13.095833778381349</v>
+        <v>13.09583377838135</v>
       </c>
       <c r="Q3">
-        <v>9.6916666030883789</v>
+        <v>9.691666603088379</v>
       </c>
       <c r="R3">
         <v>18.70000076293945</v>
@@ -932,15 +697,17 @@
         <v>794</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>31</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ABS003</t>
+        </is>
       </c>
       <c r="B4">
-        <v>150.26981000000001</v>
+        <v>150.26981</v>
       </c>
       <c r="C4">
-        <v>-33.589599999999997</v>
+        <v>-33.5896</v>
       </c>
       <c r="D4">
         <v>155</v>
@@ -982,7 +749,7 @@
         <v>11.80416679382324</v>
       </c>
       <c r="Q4">
-        <v>9.5916662216186523</v>
+        <v>9.591666221618652</v>
       </c>
       <c r="R4">
         <v>17.70000076293945</v>
@@ -997,19 +764,19 @@
         <v>12.19999980926514</v>
       </c>
       <c r="V4">
-        <v>9.1999998092651367</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="W4">
-        <v>6.4000000953674316</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="X4">
-        <v>5.4000000953674316</v>
+        <v>5.400000095367432</v>
       </c>
       <c r="Y4">
-        <v>6.4000000953674316</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="Z4">
-        <v>8.8999996185302734</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="AA4">
         <v>11.80000019073486</v>
@@ -1024,15 +791,17 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>32</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ABS004</t>
+        </is>
       </c>
       <c r="B5">
         <v>150.28671</v>
       </c>
       <c r="C5">
-        <v>-33.568269999999998</v>
+        <v>-33.56827</v>
       </c>
       <c r="D5">
         <v>155</v>
@@ -1071,10 +840,10 @@
         <v>98</v>
       </c>
       <c r="P5">
-        <v>12.229166984558111</v>
+        <v>12.22916698455811</v>
       </c>
       <c r="Q5">
-        <v>9.6750001907348633</v>
+        <v>9.675000190734863</v>
       </c>
       <c r="R5">
         <v>18.10000038146973</v>
@@ -1089,19 +858,19 @@
         <v>12.69999980926514</v>
       </c>
       <c r="V5">
-        <v>9.6000003814697266</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="W5">
-        <v>6.8000001907348633</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="X5">
-        <v>5.9000000953674316</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="Y5">
-        <v>6.9000000953674316</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="Z5">
-        <v>9.3999996185302734</v>
+        <v>9.399999618530273</v>
       </c>
       <c r="AA5">
         <v>12.19999980926514</v>
@@ -1116,15 +885,17 @@
         <v>946</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>33</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ABS005</t>
+        </is>
       </c>
       <c r="B6">
         <v>150.27821</v>
       </c>
       <c r="C6">
-        <v>-33.578099999999999</v>
+        <v>-33.5781</v>
       </c>
       <c r="D6">
         <v>155</v>
@@ -1166,7 +937,7 @@
         <v>12.07083320617676</v>
       </c>
       <c r="Q6">
-        <v>9.6750001907348633</v>
+        <v>9.675000190734863</v>
       </c>
       <c r="R6">
         <v>18</v>
@@ -1184,16 +955,16 @@
         <v>9.5</v>
       </c>
       <c r="W6">
-        <v>6.6999998092651367</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="X6">
-        <v>5.6999998092651367</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="Y6">
-        <v>6.6999998092651367</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="Z6">
-        <v>9.1999998092651367</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="AA6">
         <v>12.10000038146973</v>
@@ -1208,15 +979,17 @@
         <v>977</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>34</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ABS006</t>
+        </is>
       </c>
       <c r="B7">
-        <v>150.35112000000001</v>
+        <v>150.35112</v>
       </c>
       <c r="C7">
-        <v>-33.566110000000002</v>
+        <v>-33.56611</v>
       </c>
       <c r="D7">
         <v>168</v>
@@ -1255,10 +1028,10 @@
         <v>103</v>
       </c>
       <c r="P7">
-        <v>12.358333587646481</v>
+        <v>12.35833358764648</v>
       </c>
       <c r="Q7">
-        <v>9.6666669845581055</v>
+        <v>9.666666984558105</v>
       </c>
       <c r="R7">
         <v>18.10000038146973</v>
@@ -1273,16 +1046,16 @@
         <v>12.80000019073486</v>
       </c>
       <c r="V7">
-        <v>9.8000001907348633</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="W7">
-        <v>7.0999999046325684</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="X7">
-        <v>6.0999999046325684</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="Y7">
-        <v>7.0999999046325684</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="Z7">
         <v>9.5</v>
@@ -1300,15 +1073,17 @@
         <v>910</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>35</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ABS007</t>
+        </is>
       </c>
       <c r="B8">
-        <v>150.36966000000001</v>
+        <v>150.36966</v>
       </c>
       <c r="C8">
-        <v>-33.639159999999997</v>
+        <v>-33.63916</v>
       </c>
       <c r="D8">
         <v>176</v>
@@ -1347,10 +1122,10 @@
         <v>105</v>
       </c>
       <c r="P8">
-        <v>12.754166603088381</v>
+        <v>12.75416660308838</v>
       </c>
       <c r="Q8">
-        <v>9.4916667938232422</v>
+        <v>9.491666793823242</v>
       </c>
       <c r="R8">
         <v>18.39999961853027</v>
@@ -1368,16 +1143,16 @@
         <v>10.39999961853027</v>
       </c>
       <c r="W8">
-        <v>7.5999999046325684</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="X8">
-        <v>6.6999998092651367</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="Y8">
-        <v>7.5999999046325684</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="Z8">
-        <v>9.8999996185302734</v>
+        <v>9.899999618530273</v>
       </c>
       <c r="AA8">
         <v>12.69999980926514</v>
@@ -1392,15 +1167,17 @@
         <v>874</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>36</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ABS008</t>
+        </is>
       </c>
       <c r="B9">
-        <v>150.32069000000001</v>
+        <v>150.32069</v>
       </c>
       <c r="C9">
-        <v>-33.650390000000002</v>
+        <v>-33.65039</v>
       </c>
       <c r="D9">
         <v>174</v>
@@ -1442,7 +1219,7 @@
         <v>12.21249961853027</v>
       </c>
       <c r="Q9">
-        <v>9.4583330154418945</v>
+        <v>9.458333015441895</v>
       </c>
       <c r="R9">
         <v>18</v>
@@ -1457,7 +1234,7 @@
         <v>12.69999980926514</v>
       </c>
       <c r="V9">
-        <v>9.6999998092651367</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="W9">
         <v>7</v>
@@ -1469,7 +1246,7 @@
         <v>7</v>
       </c>
       <c r="Z9">
-        <v>9.3999996185302734</v>
+        <v>9.399999618530273</v>
       </c>
       <c r="AA9">
         <v>12.19999980926514</v>
@@ -1484,15 +1261,17 @@
         <v>945</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>37</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ABS009</t>
+        </is>
       </c>
       <c r="B10">
-        <v>150.33314999999999</v>
+        <v>150.33315</v>
       </c>
       <c r="C10">
-        <v>-33.660609999999998</v>
+        <v>-33.66061</v>
       </c>
       <c r="D10">
         <v>177</v>
@@ -1534,7 +1313,7 @@
         <v>12.22499942779541</v>
       </c>
       <c r="Q10">
-        <v>9.4499998092651367</v>
+        <v>9.449999809265137</v>
       </c>
       <c r="R10">
         <v>18</v>
@@ -1549,7 +1328,7 @@
         <v>12.69999980926514</v>
       </c>
       <c r="V10">
-        <v>9.6999998092651367</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="W10">
         <v>7</v>
@@ -1561,7 +1340,7 @@
         <v>7</v>
       </c>
       <c r="Z10">
-        <v>9.3999996185302734</v>
+        <v>9.399999618530273</v>
       </c>
       <c r="AA10">
         <v>12.19999980926514</v>
@@ -1576,15 +1355,17 @@
         <v>946</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>38</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ABS010</t>
+        </is>
       </c>
       <c r="B11">
-        <v>150.40621999999999</v>
+        <v>150.40622</v>
       </c>
       <c r="C11">
-        <v>-33.486069999999998</v>
+        <v>-33.48607</v>
       </c>
       <c r="D11">
         <v>167</v>
@@ -1626,7 +1407,7 @@
         <v>12.82083320617676</v>
       </c>
       <c r="Q11">
-        <v>9.7916669845581055</v>
+        <v>9.791666984558105</v>
       </c>
       <c r="R11">
         <v>18.5</v>
@@ -1644,13 +1425,13 @@
         <v>10.30000019073486</v>
       </c>
       <c r="W11">
-        <v>7.5999999046325684</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="X11">
-        <v>6.5999999046325684</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="Y11">
-        <v>7.5999999046325684</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="Z11">
         <v>10</v>
@@ -1668,15 +1449,17 @@
         <v>811</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>39</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ABS011</t>
+        </is>
       </c>
       <c r="B12">
-        <v>150.35631000000001</v>
+        <v>150.35631</v>
       </c>
       <c r="C12">
-        <v>-33.519620000000003</v>
+        <v>-33.51962</v>
       </c>
       <c r="D12">
         <v>162</v>
@@ -1718,7 +1501,7 @@
         <v>12.44583320617676</v>
       </c>
       <c r="Q12">
-        <v>9.9250001907348633</v>
+        <v>9.925000190734863</v>
       </c>
       <c r="R12">
         <v>18.20000076293945</v>
@@ -1733,19 +1516,19 @@
         <v>12.89999961853027</v>
       </c>
       <c r="V12">
-        <v>9.8999996185302734</v>
+        <v>9.899999618530273</v>
       </c>
       <c r="W12">
-        <v>7.1999998092651367</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="X12">
-        <v>6.0999999046325684</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="Y12">
-        <v>7.1999998092651367</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="Z12">
-        <v>9.6000003814697266</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="AA12">
         <v>12.5</v>
@@ -1760,15 +1543,17 @@
         <v>880</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>40</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ABS012</t>
+        </is>
       </c>
       <c r="B13">
-        <v>150.56586999999999</v>
+        <v>150.56587</v>
       </c>
       <c r="C13">
-        <v>-33.525889999999997</v>
+        <v>-33.52589</v>
       </c>
       <c r="D13">
         <v>176</v>
@@ -1807,10 +1592,10 @@
         <v>110</v>
       </c>
       <c r="P13">
-        <v>14.754166603088381</v>
+        <v>14.75416660308838</v>
       </c>
       <c r="Q13">
-        <v>10.791666984558111</v>
+        <v>10.79166698455811</v>
       </c>
       <c r="R13">
         <v>20.20000076293945</v>
@@ -1828,13 +1613,13 @@
         <v>12.39999961853027</v>
       </c>
       <c r="W13">
-        <v>9.6999998092651367</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="X13">
-        <v>8.8000001907348633</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Y13">
-        <v>9.6999998092651367</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="Z13">
         <v>12.19999980926514</v>
@@ -1852,15 +1637,17 @@
         <v>470</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>41</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ABS014</t>
+        </is>
       </c>
       <c r="B14">
-        <v>150.69846000000001</v>
+        <v>150.69846</v>
       </c>
       <c r="C14">
-        <v>-33.187550000000002</v>
+        <v>-33.18755</v>
       </c>
       <c r="D14">
         <v>125</v>
@@ -1902,7 +1689,7 @@
         <v>15.72500038146973</v>
       </c>
       <c r="Q14">
-        <v>11.433333396911619</v>
+        <v>11.43333339691162</v>
       </c>
       <c r="R14">
         <v>21.39999961853027</v>
@@ -1944,15 +1731,17 @@
         <v>362</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>42</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ABS015</t>
+        </is>
       </c>
       <c r="B15">
-        <v>150.64734000000001</v>
+        <v>150.64734</v>
       </c>
       <c r="C15">
-        <v>-33.257359999999998</v>
+        <v>-33.25736</v>
       </c>
       <c r="D15">
         <v>138</v>
@@ -1991,7 +1780,7 @@
         <v>95</v>
       </c>
       <c r="P15">
-        <v>15.229166984558111</v>
+        <v>15.22916698455811</v>
       </c>
       <c r="Q15">
         <v>11.00833320617676</v>
@@ -2015,7 +1804,7 @@
         <v>10.10000038146973</v>
       </c>
       <c r="X15">
-        <v>9.1000003814697266</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Y15">
         <v>10.10000038146973</v>
@@ -2036,15 +1825,17 @@
         <v>454</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>43</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ABS016</t>
+        </is>
       </c>
       <c r="B16">
-        <v>150.69952000000001</v>
+        <v>150.69952</v>
       </c>
       <c r="C16">
-        <v>-33.307000000000002</v>
+        <v>-33.307</v>
       </c>
       <c r="D16">
         <v>122</v>
@@ -2083,7 +1874,7 @@
         <v>88</v>
       </c>
       <c r="P16">
-        <v>15.779166221618651</v>
+        <v>15.77916622161865</v>
       </c>
       <c r="Q16">
         <v>11.375</v>
@@ -2107,7 +1898,7 @@
         <v>10.60000038146973</v>
       </c>
       <c r="X16">
-        <v>9.6000003814697266</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Y16">
         <v>10.69999980926514</v>
@@ -2128,15 +1919,17 @@
         <v>328</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>44</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ABS017</t>
+        </is>
       </c>
       <c r="B17">
         <v>150.69626</v>
       </c>
       <c r="C17">
-        <v>-33.055970000000002</v>
+        <v>-33.05597</v>
       </c>
       <c r="D17">
         <v>123</v>
@@ -2175,7 +1968,7 @@
         <v>88</v>
       </c>
       <c r="P17">
-        <v>15.983333587646481</v>
+        <v>15.98333358764648</v>
       </c>
       <c r="Q17">
         <v>11.64999961853027</v>
@@ -2220,9 +2013,11 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>45</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ABS018</t>
+        </is>
       </c>
       <c r="B18">
         <v>150.69743</v>
@@ -2267,10 +2062,10 @@
         <v>88</v>
       </c>
       <c r="P18">
-        <v>15.954166412353519</v>
+        <v>15.95416641235352</v>
       </c>
       <c r="Q18">
-        <v>11.658333778381349</v>
+        <v>11.65833377838135</v>
       </c>
       <c r="R18">
         <v>21.79999923706055</v>
@@ -2312,15 +2107,17 @@
         <v>335</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>46</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ABS019</t>
+        </is>
       </c>
       <c r="B19">
         <v>150.61407</v>
       </c>
       <c r="C19">
-        <v>-32.712159999999997</v>
+        <v>-32.71216</v>
       </c>
       <c r="D19">
         <v>126</v>
@@ -2362,7 +2159,7 @@
         <v>14.36666679382324</v>
       </c>
       <c r="Q19">
-        <v>10.083333015441889</v>
+        <v>10.08333301544189</v>
       </c>
       <c r="R19">
         <v>20.29999923706055</v>
@@ -2386,7 +2183,7 @@
         <v>8</v>
       </c>
       <c r="Y19">
-        <v>8.8999996185302734</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="Z19">
         <v>11.5</v>
@@ -2404,15 +2201,17 @@
         <v>662</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>47</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ABS020</t>
+        </is>
       </c>
       <c r="B20">
         <v>150.69116</v>
       </c>
       <c r="C20">
-        <v>-33.190510000000003</v>
+        <v>-33.19051</v>
       </c>
       <c r="D20">
         <v>124</v>
@@ -2451,10 +2250,10 @@
         <v>88</v>
       </c>
       <c r="P20">
-        <v>15.733333587646481</v>
+        <v>15.73333358764648</v>
       </c>
       <c r="Q20">
-        <v>11.566666603088381</v>
+        <v>11.56666660308838</v>
       </c>
       <c r="R20">
         <v>21.39999961853027</v>
@@ -2496,15 +2295,17 @@
         <v>352</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>48</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ABS021</t>
+        </is>
       </c>
       <c r="B21">
-        <v>150.69767999999999</v>
+        <v>150.69768</v>
       </c>
       <c r="C21">
-        <v>-33.193019999999997</v>
+        <v>-33.19302</v>
       </c>
       <c r="D21">
         <v>127</v>
@@ -2567,7 +2368,7 @@
         <v>10.39999961853027</v>
       </c>
       <c r="X21">
-        <v>9.3999996185302734</v>
+        <v>9.399999618530273</v>
       </c>
       <c r="Y21">
         <v>10.5</v>
@@ -2588,15 +2389,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>49</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ABS022</t>
+        </is>
       </c>
       <c r="B22">
-        <v>150.72559999999999</v>
+        <v>150.7256</v>
       </c>
       <c r="C22">
-        <v>-32.717640000000003</v>
+        <v>-32.71764</v>
       </c>
       <c r="D22">
         <v>125</v>
@@ -2635,7 +2438,7 @@
         <v>88</v>
       </c>
       <c r="P22">
-        <v>15.454166412353519</v>
+        <v>15.45416641235352</v>
       </c>
       <c r="Q22">
         <v>10.77499961853027</v>
@@ -2659,7 +2462,7 @@
         <v>10.10000038146973</v>
       </c>
       <c r="X22">
-        <v>9.1000003814697266</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Y22">
         <v>10</v>
@@ -2680,9 +2483,11 @@
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>50</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ABS023</t>
+        </is>
       </c>
       <c r="B23">
         <v>150.77202</v>
@@ -2727,7 +2532,7 @@
         <v>91</v>
       </c>
       <c r="P23">
-        <v>16.358333587646481</v>
+        <v>16.35833358764648</v>
       </c>
       <c r="Q23">
         <v>11.94999980926514</v>
@@ -2751,7 +2556,7 @@
         <v>10.80000019073486</v>
       </c>
       <c r="X23">
-        <v>9.6999998092651367</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="Y23">
         <v>11</v>
@@ -2772,15 +2577,17 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>51</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ABS024</t>
+        </is>
       </c>
       <c r="B24">
-        <v>150.68922000000001</v>
+        <v>150.68922</v>
       </c>
       <c r="C24">
-        <v>-33.164380000000001</v>
+        <v>-33.16438</v>
       </c>
       <c r="D24">
         <v>121</v>
@@ -2864,15 +2671,17 @@
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>52</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ABS025</t>
+        </is>
       </c>
       <c r="B25">
         <v>150.76163</v>
       </c>
       <c r="C25">
-        <v>-33.369570000000003</v>
+        <v>-33.36957</v>
       </c>
       <c r="D25">
         <v>120</v>
@@ -2911,7 +2720,7 @@
         <v>84</v>
       </c>
       <c r="P25">
-        <v>16.258333206176761</v>
+        <v>16.25833320617676</v>
       </c>
       <c r="Q25">
         <v>11.23333263397217</v>
@@ -2956,15 +2765,17 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>53</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ABS026</t>
+        </is>
       </c>
       <c r="B26">
-        <v>150.50013999999999</v>
+        <v>150.50014</v>
       </c>
       <c r="C26">
-        <v>-33.498199999999997</v>
+        <v>-33.4982</v>
       </c>
       <c r="D26">
         <v>184</v>
@@ -3048,15 +2859,17 @@
         <v>595</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>54</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ABS027</t>
+        </is>
       </c>
       <c r="B27">
         <v>150.55676</v>
       </c>
       <c r="C27">
-        <v>-33.551929999999999</v>
+        <v>-33.55193</v>
       </c>
       <c r="D27">
         <v>159</v>
@@ -3095,7 +2908,7 @@
         <v>102</v>
       </c>
       <c r="P27">
-        <v>15.170833587646481</v>
+        <v>15.17083358764648</v>
       </c>
       <c r="Q27">
         <v>10.97500038146973</v>
@@ -3119,7 +2932,7 @@
         <v>10.10000038146973</v>
       </c>
       <c r="X27">
-        <v>9.1000003814697266</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Y27">
         <v>10.10000038146973</v>
@@ -3140,12 +2953,14 @@
         <v>377</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>55</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ABS028</t>
+        </is>
       </c>
       <c r="B28">
-        <v>150.57393999999999</v>
+        <v>150.57394</v>
       </c>
       <c r="C28">
         <v>-33.53172</v>
@@ -3187,7 +3002,7 @@
         <v>110</v>
       </c>
       <c r="P28">
-        <v>14.808333396911619</v>
+        <v>14.80833339691162</v>
       </c>
       <c r="Q28">
         <v>10.80000019073486</v>
@@ -3208,13 +3023,13 @@
         <v>12.5</v>
       </c>
       <c r="W28">
-        <v>9.8000001907348633</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="X28">
-        <v>8.8000001907348633</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Y28">
-        <v>9.8000001907348633</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="Z28">
         <v>12.19999980926514</v>
@@ -3232,9 +3047,11 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>56</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ABS029</t>
+        </is>
       </c>
       <c r="B29">
         <v>151.07002</v>
@@ -3279,10 +3096,10 @@
         <v>82</v>
       </c>
       <c r="P29">
-        <v>16.583333969116211</v>
+        <v>16.58333396911621</v>
       </c>
       <c r="Q29">
-        <v>8.5333328247070313</v>
+        <v>8.533332824707031</v>
       </c>
       <c r="R29">
         <v>21.10000038146973</v>
@@ -3324,15 +3141,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>57</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ABS030</t>
+        </is>
       </c>
       <c r="B30">
-        <v>150.68899999999999</v>
+        <v>150.689</v>
       </c>
       <c r="C30">
-        <v>-33.141840000000002</v>
+        <v>-33.14184</v>
       </c>
       <c r="D30">
         <v>123</v>
@@ -3374,7 +3193,7 @@
         <v>15.75833320617676</v>
       </c>
       <c r="Q30">
-        <v>11.716666221618651</v>
+        <v>11.71666622161865</v>
       </c>
       <c r="R30">
         <v>21.5</v>
@@ -3395,7 +3214,7 @@
         <v>10.39999961853027</v>
       </c>
       <c r="X30">
-        <v>9.3999996185302734</v>
+        <v>9.399999618530273</v>
       </c>
       <c r="Y30">
         <v>10.5</v>
@@ -3416,15 +3235,17 @@
         <v>348</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>58</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ABS031</t>
+        </is>
       </c>
       <c r="B31">
         <v>150.69537</v>
       </c>
       <c r="C31">
-        <v>-33.182299999999998</v>
+        <v>-33.1823</v>
       </c>
       <c r="D31">
         <v>125</v>
@@ -3463,10 +3284,10 @@
         <v>89</v>
       </c>
       <c r="P31">
-        <v>15.733333587646481</v>
+        <v>15.73333358764648</v>
       </c>
       <c r="Q31">
-        <v>11.516666412353519</v>
+        <v>11.51666641235352</v>
       </c>
       <c r="R31">
         <v>21.39999961853027</v>
@@ -3508,9 +3329,11 @@
         <v>358</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>59</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ABS032</t>
+        </is>
       </c>
       <c r="B32">
         <v>150.2388</v>
@@ -3558,7 +3381,7 @@
         <v>12.07083320617676</v>
       </c>
       <c r="Q32">
-        <v>9.9250001907348633</v>
+        <v>9.925000190734863</v>
       </c>
       <c r="R32">
         <v>18.10000038146973</v>
@@ -3573,19 +3396,19 @@
         <v>12.5</v>
       </c>
       <c r="V32">
-        <v>9.3999996185302734</v>
+        <v>9.399999618530273</v>
       </c>
       <c r="W32">
-        <v>6.5999999046325684</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="X32">
-        <v>5.5999999046325684</v>
+        <v>5.599999904632568</v>
       </c>
       <c r="Y32">
-        <v>6.6999998092651367</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="Z32">
-        <v>9.1000003814697266</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="AA32">
         <v>12</v>
@@ -3600,12 +3423,14 @@
         <v>993</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>60</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ABS033</t>
+        </is>
       </c>
       <c r="B33">
-        <v>150.25542999999999</v>
+        <v>150.25543</v>
       </c>
       <c r="C33">
         <v>-33.30453</v>
@@ -3647,10 +3472,10 @@
         <v>87</v>
       </c>
       <c r="P33">
-        <v>11.729166984558111</v>
+        <v>11.72916698455811</v>
       </c>
       <c r="Q33">
-        <v>9.9750003814697266</v>
+        <v>9.975000381469727</v>
       </c>
       <c r="R33">
         <v>17.70000076293945</v>
@@ -3668,16 +3493,16 @@
         <v>9</v>
       </c>
       <c r="W33">
-        <v>6.3000001907348633</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="X33">
-        <v>5.3000001907348633</v>
+        <v>5.300000190734863</v>
       </c>
       <c r="Y33">
-        <v>6.3000001907348633</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="Z33">
-        <v>8.8000001907348633</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="AA33">
         <v>11.69999980926514</v>
@@ -3692,15 +3517,17 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>61</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ABS034</t>
+        </is>
       </c>
       <c r="B34">
-        <v>150.59971999999999</v>
+        <v>150.59972</v>
       </c>
       <c r="C34">
-        <v>-33.443460000000002</v>
+        <v>-33.44346</v>
       </c>
       <c r="D34">
         <v>168</v>
@@ -3739,7 +3566,7 @@
         <v>108</v>
       </c>
       <c r="P34">
-        <v>14.845832824707029</v>
+        <v>14.84583282470703</v>
       </c>
       <c r="Q34">
         <v>10.47499942779541</v>
@@ -3760,13 +3587,13 @@
         <v>12.60000038146973</v>
       </c>
       <c r="W34">
-        <v>9.8999996185302734</v>
+        <v>9.899999618530273</v>
       </c>
       <c r="X34">
-        <v>8.8999996185302734</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="Y34">
-        <v>9.8000001907348633</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="Z34">
         <v>12.19999980926514</v>
@@ -3784,15 +3611,17 @@
         <v>479</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>62</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ABS035</t>
+        </is>
       </c>
       <c r="B35">
-        <v>150.49755999999999</v>
+        <v>150.49756</v>
       </c>
       <c r="C35">
-        <v>-34.917200000000001</v>
+        <v>-34.9172</v>
       </c>
       <c r="D35">
         <v>99</v>
@@ -3831,10 +3660,10 @@
         <v>76</v>
       </c>
       <c r="P35">
-        <v>16.116666793823239</v>
+        <v>16.11666679382324</v>
       </c>
       <c r="Q35">
-        <v>9.2666664123535156</v>
+        <v>9.266666412353516</v>
       </c>
       <c r="R35">
         <v>20.79999923706055</v>
@@ -3876,15 +3705,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>63</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ABS036</t>
+        </is>
       </c>
       <c r="B36">
-        <v>150.39751000000001</v>
+        <v>150.39751</v>
       </c>
       <c r="C36">
-        <v>-33.512819999999998</v>
+        <v>-33.51282</v>
       </c>
       <c r="D36">
         <v>170</v>
@@ -3923,10 +3754,10 @@
         <v>104</v>
       </c>
       <c r="P36">
-        <v>12.516666412353519</v>
+        <v>12.51666641235352</v>
       </c>
       <c r="Q36">
-        <v>9.5666666030883789</v>
+        <v>9.566666603088379</v>
       </c>
       <c r="R36">
         <v>18.20000076293945</v>
@@ -3944,16 +3775,16 @@
         <v>10</v>
       </c>
       <c r="W36">
-        <v>7.3000001907348633</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="X36">
-        <v>6.4000000953674316</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="Y36">
-        <v>7.3000001907348633</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="Z36">
-        <v>9.6999998092651367</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="AA36">
         <v>12.5</v>
@@ -3968,15 +3799,17 @@
         <v>876</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>64</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ABS037</t>
+        </is>
       </c>
       <c r="B37">
         <v>150.54413</v>
       </c>
       <c r="C37">
-        <v>-34.342849999999999</v>
+        <v>-34.34285</v>
       </c>
       <c r="D37">
         <v>99</v>
@@ -4015,10 +3848,10 @@
         <v>79</v>
       </c>
       <c r="P37">
-        <v>14.291666984558111</v>
+        <v>14.29166698455811</v>
       </c>
       <c r="Q37">
-        <v>9.8333330154418945</v>
+        <v>9.833333015441895</v>
       </c>
       <c r="R37">
         <v>19.5</v>
@@ -4039,10 +3872,10 @@
         <v>9.5</v>
       </c>
       <c r="X37">
-        <v>8.3999996185302734</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="Y37">
-        <v>9.3999996185302734</v>
+        <v>9.399999618530273</v>
       </c>
       <c r="Z37">
         <v>11.69999980926514</v>
@@ -4060,12 +3893,14 @@
         <v>485</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>65</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ABS038</t>
+        </is>
       </c>
       <c r="B38">
-        <v>150.50785999999999</v>
+        <v>150.50786</v>
       </c>
       <c r="C38">
         <v>-34.35266</v>
@@ -4107,10 +3942,10 @@
         <v>80</v>
       </c>
       <c r="P38">
-        <v>13.654167175292971</v>
+        <v>13.65416717529297</v>
       </c>
       <c r="Q38">
-        <v>9.8916664123535156</v>
+        <v>9.891666412353516</v>
       </c>
       <c r="R38">
         <v>19</v>
@@ -4128,13 +3963,13 @@
         <v>11.39999961853027</v>
       </c>
       <c r="W38">
-        <v>8.8000001907348633</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="X38">
-        <v>7.6999998092651367</v>
+        <v>7.699999809265137</v>
       </c>
       <c r="Y38">
-        <v>8.6999998092651367</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="Z38">
         <v>11</v>
@@ -4152,15 +3987,17 @@
         <v>604</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>66</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ABS039</t>
+        </is>
       </c>
       <c r="B39">
-        <v>150.47407999999999</v>
+        <v>150.47408</v>
       </c>
       <c r="C39">
-        <v>-34.359400000000001</v>
+        <v>-34.3594</v>
       </c>
       <c r="D39">
         <v>101</v>
@@ -4220,10 +4057,10 @@
         <v>11.10000038146973</v>
       </c>
       <c r="W39">
-        <v>8.3999996185302734</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="X39">
-        <v>7.4000000953674316</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="Y39">
         <v>8.5</v>
@@ -4244,15 +4081,17 @@
         <v>649</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>67</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ABS040</t>
+        </is>
       </c>
       <c r="B40">
-        <v>150.46942000000001</v>
+        <v>150.46942</v>
       </c>
       <c r="C40">
-        <v>-34.357469999999999</v>
+        <v>-34.35747</v>
       </c>
       <c r="D40">
         <v>102</v>
@@ -4291,10 +4130,10 @@
         <v>80</v>
       </c>
       <c r="P40">
-        <v>13.404167175292971</v>
+        <v>13.40416717529297</v>
       </c>
       <c r="Q40">
-        <v>9.8416662216186523</v>
+        <v>9.841666221618652</v>
       </c>
       <c r="R40">
         <v>18.79999923706055</v>
@@ -4312,13 +4151,13 @@
         <v>11.10000038146973</v>
       </c>
       <c r="W40">
-        <v>8.3999996185302734</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="X40">
-        <v>7.4000000953674316</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="Y40">
-        <v>8.3999996185302734</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="Z40">
         <v>10.69999980926514</v>
@@ -4336,15 +4175,17 @@
         <v>656</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>68</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ABS041</t>
+        </is>
       </c>
       <c r="B41">
-        <v>151.06560999999999</v>
+        <v>151.06561</v>
       </c>
       <c r="C41">
-        <v>-33.353540000000002</v>
+        <v>-33.35354</v>
       </c>
       <c r="D41">
         <v>128</v>
@@ -4383,10 +4224,10 @@
         <v>84</v>
       </c>
       <c r="P41">
-        <v>16.454166412353519</v>
+        <v>16.45416641235352</v>
       </c>
       <c r="Q41">
-        <v>9.9250001907348633</v>
+        <v>9.925000190734863</v>
       </c>
       <c r="R41">
         <v>21.60000038146973</v>
@@ -4428,15 +4269,17 @@
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>69</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ABS042</t>
+        </is>
       </c>
       <c r="B42">
         <v>151.50116</v>
       </c>
       <c r="C42">
-        <v>-32.832990000000002</v>
+        <v>-32.83299</v>
       </c>
       <c r="D42">
         <v>92</v>
@@ -4475,10 +4318,10 @@
         <v>72</v>
       </c>
       <c r="P42">
-        <v>17.816667556762699</v>
+        <v>17.8166675567627</v>
       </c>
       <c r="Q42">
-        <v>11.233333587646481</v>
+        <v>11.23333358764648</v>
       </c>
       <c r="R42">
         <v>23.29999923706055</v>
@@ -4520,15 +4363,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>70</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ABS043</t>
+        </is>
       </c>
       <c r="B43">
-        <v>151.50435999999999</v>
+        <v>151.50436</v>
       </c>
       <c r="C43">
-        <v>-32.834820000000001</v>
+        <v>-32.83482</v>
       </c>
       <c r="D43">
         <v>93</v>
@@ -4570,7 +4415,7 @@
         <v>17.77499961853027</v>
       </c>
       <c r="Q43">
-        <v>11.083333015441889</v>
+        <v>11.08333301544189</v>
       </c>
       <c r="R43">
         <v>23.20000076293945</v>
@@ -4612,15 +4457,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>71</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ABS044</t>
+        </is>
       </c>
       <c r="B44">
         <v>150.76682</v>
       </c>
       <c r="C44">
-        <v>-32.899659999999997</v>
+        <v>-32.89966</v>
       </c>
       <c r="D44">
         <v>127</v>
@@ -4683,7 +4530,7 @@
         <v>10.69999980926514</v>
       </c>
       <c r="X44">
-        <v>9.6000003814697266</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Y44">
         <v>10.89999961853027</v>
@@ -4704,15 +4551,17 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>72</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ABS045</t>
+        </is>
       </c>
       <c r="B45">
-        <v>150.30090000000001</v>
+        <v>150.3009</v>
       </c>
       <c r="C45">
-        <v>-34.671280000000003</v>
+        <v>-34.67128</v>
       </c>
       <c r="D45">
         <v>106</v>
@@ -4754,7 +4603,7 @@
         <v>13.35000038146973</v>
       </c>
       <c r="Q45">
-        <v>10.216666221618651</v>
+        <v>10.21666622161865</v>
       </c>
       <c r="R45">
         <v>18.89999961853027</v>
@@ -4772,13 +4621,13 @@
         <v>10.89999961853027</v>
       </c>
       <c r="W45">
-        <v>8.1999998092651367</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="X45">
-        <v>7.3000001907348633</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="Y45">
-        <v>8.3999996185302734</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="Z45">
         <v>10.69999980926514</v>
@@ -4796,15 +4645,17 @@
         <v>622</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>73</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ABS046</t>
+        </is>
       </c>
       <c r="B46">
         <v>150.39543</v>
       </c>
       <c r="C46">
-        <v>-34.774349999999998</v>
+        <v>-34.77435</v>
       </c>
       <c r="D46">
         <v>103</v>
@@ -4843,10 +4694,10 @@
         <v>76</v>
       </c>
       <c r="P46">
-        <v>15.333333015441889</v>
+        <v>15.33333301544189</v>
       </c>
       <c r="Q46">
-        <v>9.1999998092651367</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="R46">
         <v>20.29999923706055</v>
@@ -4867,7 +4718,7 @@
         <v>10.60000038146973</v>
       </c>
       <c r="X46">
-        <v>9.6000003814697266</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Y46">
         <v>10.69999980926514</v>
@@ -4888,9 +4739,11 @@
         <v>260</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>74</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ABS047</t>
+        </is>
       </c>
       <c r="B47">
         <v>150.39343</v>
@@ -4935,10 +4788,10 @@
         <v>77</v>
       </c>
       <c r="P47">
-        <v>14.620833396911619</v>
+        <v>14.62083339691162</v>
       </c>
       <c r="Q47">
-        <v>9.1083335876464844</v>
+        <v>9.108333587646484</v>
       </c>
       <c r="R47">
         <v>19.39999961853027</v>
@@ -4959,7 +4812,7 @@
         <v>10.19999980926514</v>
       </c>
       <c r="X47">
-        <v>9.3000001907348633</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="Y47">
         <v>10.10000038146973</v>
@@ -4980,15 +4833,17 @@
         <v>414</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>75</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ABS048</t>
+        </is>
       </c>
       <c r="B48">
         <v>151.06932</v>
       </c>
       <c r="C48">
-        <v>-33.332239999999999</v>
+        <v>-33.33224</v>
       </c>
       <c r="D48">
         <v>128</v>
@@ -5030,7 +4885,7 @@
         <v>16.4375</v>
       </c>
       <c r="Q48">
-        <v>9.9250001907348633</v>
+        <v>9.925000190734863</v>
       </c>
       <c r="R48">
         <v>21.60000038146973</v>
@@ -5072,15 +4927,17 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>76</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ABS049</t>
+        </is>
       </c>
       <c r="B49">
-        <v>150.67812000000001</v>
+        <v>150.67812</v>
       </c>
       <c r="C49">
-        <v>-33.266269999999999</v>
+        <v>-33.26627</v>
       </c>
       <c r="D49">
         <v>121</v>
@@ -5143,7 +5000,7 @@
         <v>10.60000038146973</v>
       </c>
       <c r="X49">
-        <v>9.6999998092651367</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="Y49">
         <v>10.69999980926514</v>
@@ -5164,15 +5021,17 @@
         <v>324</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>77</v>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ABS050</t>
+        </is>
       </c>
       <c r="B50">
         <v>150.40016</v>
       </c>
       <c r="C50">
-        <v>-35.096440000000001</v>
+        <v>-35.09644</v>
       </c>
       <c r="D50">
         <v>101</v>
@@ -5211,10 +5070,10 @@
         <v>77</v>
       </c>
       <c r="P50">
-        <v>14.729166984558111</v>
+        <v>14.72916698455811</v>
       </c>
       <c r="Q50">
-        <v>9.0416669845581055</v>
+        <v>9.041666984558105</v>
       </c>
       <c r="R50">
         <v>19.5</v>
@@ -5235,7 +5094,7 @@
         <v>10.39999961853027</v>
       </c>
       <c r="X50">
-        <v>9.3999996185302734</v>
+        <v>9.399999618530273</v>
       </c>
       <c r="Y50">
         <v>10.30000019073486</v>
@@ -5256,15 +5115,17 @@
         <v>397</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>78</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ABS051</t>
+        </is>
       </c>
       <c r="B51">
-        <v>150.49948000000001</v>
+        <v>150.49948</v>
       </c>
       <c r="C51">
-        <v>-34.993279999999999</v>
+        <v>-34.99328</v>
       </c>
       <c r="D51">
         <v>98</v>
@@ -5303,10 +5164,10 @@
         <v>77</v>
       </c>
       <c r="P51">
-        <v>15.783332824707029</v>
+        <v>15.78333282470703</v>
       </c>
       <c r="Q51">
-        <v>9.0833330154418945</v>
+        <v>9.083333015441895</v>
       </c>
       <c r="R51">
         <v>20.39999961853027</v>
@@ -5348,15 +5209,17 @@
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>79</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ABS052</t>
+        </is>
       </c>
       <c r="B52">
         <v>150.39847</v>
       </c>
       <c r="C52">
-        <v>-34.913969999999999</v>
+        <v>-34.91397</v>
       </c>
       <c r="D52">
         <v>96</v>
@@ -5398,7 +5261,7 @@
         <v>15.8125</v>
       </c>
       <c r="Q52">
-        <v>9.3249998092651367</v>
+        <v>9.324999809265137</v>
       </c>
       <c r="R52">
         <v>20.70000076293945</v>
@@ -5440,15 +5303,17 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>80</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ABS053</t>
+        </is>
       </c>
       <c r="B53">
-        <v>150.41678999999999</v>
+        <v>150.41679</v>
       </c>
       <c r="C53">
-        <v>-34.846809999999998</v>
+        <v>-34.84681</v>
       </c>
       <c r="D53">
         <v>98</v>
@@ -5487,10 +5352,10 @@
         <v>75</v>
       </c>
       <c r="P53">
-        <v>16.408332824707031</v>
+        <v>16.40833282470703</v>
       </c>
       <c r="Q53">
-        <v>9.1666669845581055</v>
+        <v>9.166666984558105</v>
       </c>
       <c r="R53">
         <v>21.20000076293945</v>
@@ -5532,15 +5397,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>81</v>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ABS054</t>
+        </is>
       </c>
       <c r="B54">
         <v>150.37033</v>
       </c>
       <c r="C54">
-        <v>-33.494520000000001</v>
+        <v>-33.49452</v>
       </c>
       <c r="D54">
         <v>164</v>
@@ -5579,10 +5446,10 @@
         <v>102</v>
       </c>
       <c r="P54">
-        <v>12.345833778381349</v>
+        <v>12.34583377838135</v>
       </c>
       <c r="Q54">
-        <v>9.7416667938232422</v>
+        <v>9.741666793823242</v>
       </c>
       <c r="R54">
         <v>18.10000038146973</v>
@@ -5597,16 +5464,16 @@
         <v>12.89999961853027</v>
       </c>
       <c r="V54">
-        <v>9.8000001907348633</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="W54">
-        <v>7.0999999046325684</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="X54">
-        <v>6.0999999046325684</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="Y54">
-        <v>7.0999999046325684</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="Z54">
         <v>9.5</v>
@@ -5624,9 +5491,11 @@
         <v>916</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>82</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ABS055</t>
+        </is>
       </c>
       <c r="B55">
         <v>150.6942</v>
@@ -5674,7 +5543,7 @@
         <v>15.67916679382324</v>
       </c>
       <c r="Q55">
-        <v>11.308333396911619</v>
+        <v>11.30833339691162</v>
       </c>
       <c r="R55">
         <v>21.29999923706055</v>
@@ -5716,15 +5585,17 @@
         <v>374</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>83</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ABS056</t>
+        </is>
       </c>
       <c r="B56">
-        <v>150.90987000000001</v>
+        <v>150.90987</v>
       </c>
       <c r="C56">
-        <v>-32.799340000000001</v>
+        <v>-32.79934</v>
       </c>
       <c r="D56">
         <v>124</v>
@@ -5763,10 +5634,10 @@
         <v>91</v>
       </c>
       <c r="P56">
-        <v>16.220832824707031</v>
+        <v>16.22083282470703</v>
       </c>
       <c r="Q56">
-        <v>11.208333015441889</v>
+        <v>11.20833301544189</v>
       </c>
       <c r="R56">
         <v>22</v>
@@ -5787,7 +5658,7 @@
         <v>10.80000019073486</v>
       </c>
       <c r="X56">
-        <v>9.8000001907348633</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="Y56">
         <v>10.89999961853027</v>
@@ -5808,15 +5679,17 @@
         <v>311</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>84</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ABS057</t>
+        </is>
       </c>
       <c r="B57">
-        <v>150.72110000000001</v>
+        <v>150.7211</v>
       </c>
       <c r="C57">
-        <v>-33.074109999999997</v>
+        <v>-33.07411</v>
       </c>
       <c r="D57">
         <v>124</v>
@@ -5855,10 +5728,10 @@
         <v>88</v>
       </c>
       <c r="P57">
-        <v>16.008333206176761</v>
+        <v>16.00833320617676</v>
       </c>
       <c r="Q57">
-        <v>11.516666412353519</v>
+        <v>11.51666641235352</v>
       </c>
       <c r="R57">
         <v>21.79999923706055</v>
@@ -5879,7 +5752,7 @@
         <v>10.60000038146973</v>
       </c>
       <c r="X57">
-        <v>9.6000003814697266</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Y57">
         <v>10.69999980926514</v>
@@ -5900,12 +5773,14 @@
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>85</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ABS058</t>
+        </is>
       </c>
       <c r="B58">
-        <v>150.72148000000001</v>
+        <v>150.72148</v>
       </c>
       <c r="C58">
         <v>-33.20185</v>
@@ -5947,10 +5822,10 @@
         <v>88</v>
       </c>
       <c r="P58">
-        <v>15.891666412353519</v>
+        <v>15.89166641235352</v>
       </c>
       <c r="Q58">
-        <v>11.266666412353519</v>
+        <v>11.26666641235352</v>
       </c>
       <c r="R58">
         <v>21.5</v>
@@ -5971,7 +5846,7 @@
         <v>10.69999980926514</v>
       </c>
       <c r="X58">
-        <v>9.6999998092651367</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="Y58">
         <v>10.69999980926514</v>
@@ -5992,15 +5867,17 @@
         <v>331</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>86</v>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ABS059</t>
+        </is>
       </c>
       <c r="B59">
-        <v>150.84135000000001</v>
+        <v>150.84135</v>
       </c>
       <c r="C59">
-        <v>-33.382170000000002</v>
+        <v>-33.38217</v>
       </c>
       <c r="D59">
         <v>120</v>
@@ -6039,10 +5916,10 @@
         <v>81</v>
       </c>
       <c r="P59">
-        <v>16.558334350585941</v>
+        <v>16.55833435058594</v>
       </c>
       <c r="Q59">
-        <v>10.983333587646481</v>
+        <v>10.98333358764648</v>
       </c>
       <c r="R59">
         <v>21.79999923706055</v>
@@ -6084,12 +5961,14 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>87</v>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ABS060</t>
+        </is>
       </c>
       <c r="B60">
-        <v>150.50943000000001</v>
+        <v>150.50943</v>
       </c>
       <c r="C60">
         <v>-34.31476</v>
@@ -6131,10 +6010,10 @@
         <v>77</v>
       </c>
       <c r="P60">
-        <v>14.395833015441889</v>
+        <v>14.39583301544189</v>
       </c>
       <c r="Q60">
-        <v>9.8583335876464844</v>
+        <v>9.858333587646484</v>
       </c>
       <c r="R60">
         <v>19.60000038146973</v>
@@ -6152,13 +6031,13 @@
         <v>12.19999980926514</v>
       </c>
       <c r="W60">
-        <v>9.6000003814697266</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="X60">
         <v>8.5</v>
       </c>
       <c r="Y60">
-        <v>9.6000003814697266</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Z60">
         <v>11.89999961853027</v>
@@ -6176,15 +6055,17 @@
         <v>451</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>88</v>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ABS061</t>
+        </is>
       </c>
       <c r="B61">
         <v>151.50082</v>
       </c>
       <c r="C61">
-        <v>-32.845289999999999</v>
+        <v>-32.84529</v>
       </c>
       <c r="D61">
         <v>94</v>
@@ -6223,10 +6104,10 @@
         <v>72</v>
       </c>
       <c r="P61">
-        <v>17.729166030883789</v>
+        <v>17.72916603088379</v>
       </c>
       <c r="Q61">
-        <v>10.958333015441889</v>
+        <v>10.95833301544189</v>
       </c>
       <c r="R61">
         <v>23.20000076293945</v>
@@ -6268,15 +6149,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>89</v>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ABS062</t>
+        </is>
       </c>
       <c r="B62">
-        <v>150.70393000000001</v>
+        <v>150.70393</v>
       </c>
       <c r="C62">
-        <v>-33.181330000000003</v>
+        <v>-33.18133</v>
       </c>
       <c r="D62">
         <v>125</v>
@@ -6315,7 +6198,7 @@
         <v>89</v>
       </c>
       <c r="P62">
-        <v>15.766666412353519</v>
+        <v>15.76666641235352</v>
       </c>
       <c r="Q62">
         <v>11.44999980926514</v>
@@ -6360,15 +6243,17 @@
         <v>357</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>90</v>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ABS063</t>
+        </is>
       </c>
       <c r="B63">
-        <v>150.69408000000001</v>
+        <v>150.69408</v>
       </c>
       <c r="C63">
-        <v>-33.205109999999998</v>
+        <v>-33.20511</v>
       </c>
       <c r="D63">
         <v>127</v>
@@ -6410,7 +6295,7 @@
         <v>15.67916679382324</v>
       </c>
       <c r="Q63">
-        <v>11.308333396911619</v>
+        <v>11.30833339691162</v>
       </c>
       <c r="R63">
         <v>21.29999923706055</v>
